--- a/INTLINE/data/578/NESDC/QGDP/Table 6Q_historical.xlsx
+++ b/INTLINE/data/578/NESDC/QGDP/Table 6Q_historical.xlsx
@@ -1,435 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Table 6" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Table 6" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="130">
-  <si>
-    <t>1993-Q1</t>
-  </si>
-  <si>
-    <t>1993-Q2</t>
-  </si>
-  <si>
-    <t>1993-Q3</t>
-  </si>
-  <si>
-    <t>1993-Q4</t>
-  </si>
-  <si>
-    <t>1994-Q1</t>
-  </si>
-  <si>
-    <t>1994-Q2</t>
-  </si>
-  <si>
-    <t>1994-Q3</t>
-  </si>
-  <si>
-    <t>1994-Q4</t>
-  </si>
-  <si>
-    <t>1995-Q1</t>
-  </si>
-  <si>
-    <t>1995-Q2</t>
-  </si>
-  <si>
-    <t>1995-Q3</t>
-  </si>
-  <si>
-    <t>1995-Q4</t>
-  </si>
-  <si>
-    <t>1996-Q1</t>
-  </si>
-  <si>
-    <t>1996-Q2</t>
-  </si>
-  <si>
-    <t>1996-Q3</t>
-  </si>
-  <si>
-    <t>1996-Q4</t>
-  </si>
-  <si>
-    <t>1997-Q1</t>
-  </si>
-  <si>
-    <t>1997-Q2</t>
-  </si>
-  <si>
-    <t>1997-Q3</t>
-  </si>
-  <si>
-    <t>1997-Q4</t>
-  </si>
-  <si>
-    <t>1998-Q1</t>
-  </si>
-  <si>
-    <t>1998-Q2</t>
-  </si>
-  <si>
-    <t>1998-Q3</t>
-  </si>
-  <si>
-    <t>1998-Q4</t>
-  </si>
-  <si>
-    <t>1999-Q1</t>
-  </si>
-  <si>
-    <t>1999-Q2</t>
-  </si>
-  <si>
-    <t>1999-Q3</t>
-  </si>
-  <si>
-    <t>1999-Q4</t>
-  </si>
-  <si>
-    <t>2000-Q1</t>
-  </si>
-  <si>
-    <t>2000-Q2</t>
-  </si>
-  <si>
-    <t>2000-Q3</t>
-  </si>
-  <si>
-    <t>2000-Q4</t>
-  </si>
-  <si>
-    <t>2001-Q1</t>
-  </si>
-  <si>
-    <t>2001-Q2</t>
-  </si>
-  <si>
-    <t>2001-Q3</t>
-  </si>
-  <si>
-    <t>2001-Q4</t>
-  </si>
-  <si>
-    <t>2002-Q1</t>
-  </si>
-  <si>
-    <t>2002-Q2</t>
-  </si>
-  <si>
-    <t>2002-Q3</t>
-  </si>
-  <si>
-    <t>2002-Q4</t>
-  </si>
-  <si>
-    <t>2003-Q1</t>
-  </si>
-  <si>
-    <t>2003-Q2</t>
-  </si>
-  <si>
-    <t>2003-Q3</t>
-  </si>
-  <si>
-    <t>2003-Q4</t>
-  </si>
-  <si>
-    <t>2004-Q1</t>
-  </si>
-  <si>
-    <t>2004-Q2</t>
-  </si>
-  <si>
-    <t>2004-Q3</t>
-  </si>
-  <si>
-    <t>2004-Q4</t>
-  </si>
-  <si>
-    <t>2005-Q1</t>
-  </si>
-  <si>
-    <t>2005-Q2</t>
-  </si>
-  <si>
-    <t>2005-Q3</t>
-  </si>
-  <si>
-    <t>2005-Q4</t>
-  </si>
-  <si>
-    <t>2006-Q1</t>
-  </si>
-  <si>
-    <t>2006-Q2</t>
-  </si>
-  <si>
-    <t>2006-Q3</t>
-  </si>
-  <si>
-    <t>2006-Q4</t>
-  </si>
-  <si>
-    <t>2007-Q1</t>
-  </si>
-  <si>
-    <t>2007-Q2</t>
-  </si>
-  <si>
-    <t>2007-Q3</t>
-  </si>
-  <si>
-    <t>2007-Q4</t>
-  </si>
-  <si>
-    <t>2008-Q1</t>
-  </si>
-  <si>
-    <t>2008-Q2</t>
-  </si>
-  <si>
-    <t>2008-Q3</t>
-  </si>
-  <si>
-    <t>2008-Q4</t>
-  </si>
-  <si>
-    <t>2009-Q1</t>
-  </si>
-  <si>
-    <t>2009-Q2</t>
-  </si>
-  <si>
-    <t>2009-Q3</t>
-  </si>
-  <si>
-    <t>2009-Q4</t>
-  </si>
-  <si>
-    <t>2010-Q1</t>
-  </si>
-  <si>
-    <t>2010-Q2</t>
-  </si>
-  <si>
-    <t>2010-Q3</t>
-  </si>
-  <si>
-    <t>2010-Q4</t>
-  </si>
-  <si>
-    <t>2011-Q1</t>
-  </si>
-  <si>
-    <t>2011-Q2</t>
-  </si>
-  <si>
-    <t>2011-Q3</t>
-  </si>
-  <si>
-    <t>2011-Q4</t>
-  </si>
-  <si>
-    <t>2012-Q1</t>
-  </si>
-  <si>
-    <t>2012-Q2</t>
-  </si>
-  <si>
-    <t>2012-Q3</t>
-  </si>
-  <si>
-    <t>2012-Q4</t>
-  </si>
-  <si>
-    <t>2013-Q1</t>
-  </si>
-  <si>
-    <t>2013-Q2</t>
-  </si>
-  <si>
-    <t>2013-Q3</t>
-  </si>
-  <si>
-    <t>2013-Q4</t>
-  </si>
-  <si>
-    <t>2014-Q1</t>
-  </si>
-  <si>
-    <t>2014-Q2</t>
-  </si>
-  <si>
-    <t>2014-Q3</t>
-  </si>
-  <si>
-    <t>2014-Q4</t>
-  </si>
-  <si>
-    <t>2015-Q1</t>
-  </si>
-  <si>
-    <t>2015-Q2</t>
-  </si>
-  <si>
-    <t>2015-Q3</t>
-  </si>
-  <si>
-    <t>2015-Q4</t>
-  </si>
-  <si>
-    <t>2016-Q1</t>
-  </si>
-  <si>
-    <t>2016-Q2</t>
-  </si>
-  <si>
-    <t>2016-Q3</t>
-  </si>
-  <si>
-    <t>2016-Q4</t>
-  </si>
-  <si>
-    <t>2017-Q1</t>
-  </si>
-  <si>
-    <t>2017-Q2</t>
-  </si>
-  <si>
-    <t>2017-Q3</t>
-  </si>
-  <si>
-    <t>2017-Q4</t>
-  </si>
-  <si>
-    <t>2018-Q1</t>
-  </si>
-  <si>
-    <t>2018-Q2</t>
-  </si>
-  <si>
-    <t>2018-Q3</t>
-  </si>
-  <si>
-    <t>2018-Q4</t>
-  </si>
-  <si>
-    <t>2019-Q1</t>
-  </si>
-  <si>
-    <t>2019-Q2</t>
-  </si>
-  <si>
-    <t>2019-Q3</t>
-  </si>
-  <si>
-    <t>2019-Q4</t>
-  </si>
-  <si>
-    <t>2020-Q1</t>
-  </si>
-  <si>
-    <t>2020-Q2</t>
-  </si>
-  <si>
-    <t>2020-Q3</t>
-  </si>
-  <si>
-    <t>2020-Q4</t>
-  </si>
-  <si>
-    <t>2021-Q1</t>
-  </si>
-  <si>
-    <t>2021-Q2</t>
-  </si>
-  <si>
-    <t>2021-Q3</t>
-  </si>
-  <si>
-    <t>2021-Q4</t>
-  </si>
-  <si>
-    <t>2022-Q1</t>
-  </si>
-  <si>
-    <t>Agriculture</t>
-  </si>
-  <si>
-    <t>Non- Agriculture</t>
-  </si>
-  <si>
-    <t>Mining and Quarrying</t>
-  </si>
-  <si>
-    <t>Manu- facturing</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>Wholesale and Retail Trade, Repair of Vehicles and Personal and Household Goods</t>
-  </si>
-  <si>
-    <t>Accommodation and food service activities</t>
-  </si>
-  <si>
-    <t>Financial and insurance activities</t>
-  </si>
-  <si>
-    <t>Public Administration and Defence; Compulsory Social Security</t>
-  </si>
-  <si>
-    <t>Education</t>
-  </si>
-  <si>
-    <t>Health and Social Work</t>
-  </si>
-  <si>
-    <t>Private Household with Employed Persons</t>
-  </si>
-  <si>
-    <t>Gross Domestic Product (CVM)</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -444,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -463,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -760,4995 +353,5261 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:DN14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:118">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="CX1" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="CY1" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="CZ1" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="DA1" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="DB1" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="DC1" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="DD1" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="DE1" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="DF1" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="DG1" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="DH1" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="DI1" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="DJ1" s="1" t="s">
-        <v>112</v>
-      </c>
-      <c r="DK1" s="1" t="s">
-        <v>113</v>
-      </c>
-      <c r="DL1" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="DM1" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="DN1" s="1" t="s">
-        <v>116</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1993-Q4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1994-Q4</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q3</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>1995-Q4</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q3</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>1996-Q4</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q1</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q2</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q3</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>1997-Q4</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q1</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q2</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q3</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q4</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q1</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q2</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q3</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q4</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q1</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q2</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q3</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q1</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q4</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q1</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q2</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q3</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q4</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q1</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q2</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q3</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q4</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q1</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q3</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q4</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q3</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q4</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q1</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q3</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q4</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q1</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q2</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q3</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q4</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q1</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q3</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q4</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q1</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q2</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q3</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q4</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q1</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q2</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q3</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q4</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q1</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q3</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q4</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q1</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q2</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q3</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q4</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q1</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q2</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q3</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q4</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q1</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q2</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q3</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q4</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q1</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q2</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q3</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q4</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q1</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q2</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q3</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q4</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q1</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q2</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q3</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q4</t>
+        </is>
+      </c>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q1</t>
+        </is>
+      </c>
+      <c r="CY1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q2</t>
+        </is>
+      </c>
+      <c r="CZ1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q3</t>
+        </is>
+      </c>
+      <c r="DA1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q4</t>
+        </is>
+      </c>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q1</t>
+        </is>
+      </c>
+      <c r="DC1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q2</t>
+        </is>
+      </c>
+      <c r="DD1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q3</t>
+        </is>
+      </c>
+      <c r="DE1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q4</t>
+        </is>
+      </c>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q1</t>
+        </is>
+      </c>
+      <c r="DG1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q2</t>
+        </is>
+      </c>
+      <c r="DH1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q3</t>
+        </is>
+      </c>
+      <c r="DI1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="DJ1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="DK1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="DL1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="DM1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="DN1" s="1" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:118">
-      <c r="A2" s="1" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Agriculture</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>100103</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>92052</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>92338</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>94873</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>100907</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>97346</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>104752</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>102443</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>96470</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>105430</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>101850</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>106741</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>104594</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>110599</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>109775</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>109137</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>109830</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>110054</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>108299</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>105285</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>105404</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>99009</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>104760</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>120554</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>114423</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>112054</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>114643</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>114503</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>126979</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>129907</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>123142</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>110037</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" t="n">
         <v>122459</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="n">
         <v>124486</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" t="n">
         <v>124491</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" t="n">
         <v>127770</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" t="n">
         <v>121453</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" t="n">
         <v>127129</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="n">
         <v>130491</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" t="n">
         <v>122794</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" t="n">
         <v>134878</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" t="n">
         <v>143862</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" t="n">
         <v>142191</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" t="n">
         <v>139207</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" t="n">
         <v>139813</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" t="n">
         <v>134568</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" t="n">
         <v>136602</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" t="n">
         <v>140170</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" t="n">
         <v>132351</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" t="n">
         <v>134181</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" t="n">
         <v>140839</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" t="n">
         <v>143707</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" t="n">
         <v>141566</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" t="n">
         <v>139706</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" t="n">
         <v>147901</v>
       </c>
-      <c r="BE2">
+      <c r="BE2" t="n">
         <v>146526</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" t="n">
         <v>145885</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" t="n">
         <v>143483</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" t="n">
         <v>145611</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" t="n">
         <v>151375</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" t="n">
         <v>149354</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" t="n">
         <v>151639</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" t="n">
         <v>151989</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" t="n">
         <v>153487</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" t="n">
         <v>153475</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" t="n">
         <v>148934</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" t="n">
         <v>153513</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ2" t="n">
         <v>150162</v>
       </c>
-      <c r="BR2">
+      <c r="BR2" t="n">
         <v>149918</v>
       </c>
-      <c r="BS2">
+      <c r="BS2" t="n">
         <v>155618</v>
       </c>
-      <c r="BT2">
+      <c r="BT2" t="n">
         <v>149115</v>
       </c>
-      <c r="BU2">
+      <c r="BU2" t="n">
         <v>149018</v>
       </c>
-      <c r="BV2">
+      <c r="BV2" t="n">
         <v>153806</v>
       </c>
-      <c r="BW2">
+      <c r="BW2" t="n">
         <v>164940</v>
       </c>
-      <c r="BX2">
+      <c r="BX2" t="n">
         <v>155313</v>
       </c>
-      <c r="BY2">
+      <c r="BY2" t="n">
         <v>164374</v>
       </c>
-      <c r="BZ2">
+      <c r="BZ2" t="n">
         <v>164340</v>
       </c>
-      <c r="CA2">
+      <c r="CA2" t="n">
         <v>160361</v>
       </c>
-      <c r="CB2">
+      <c r="CB2" t="n">
         <v>163798</v>
       </c>
-      <c r="CC2">
+      <c r="CC2" t="n">
         <v>166543</v>
       </c>
-      <c r="CD2">
+      <c r="CD2" t="n">
         <v>166811</v>
       </c>
-      <c r="CE2">
+      <c r="CE2" t="n">
         <v>162772</v>
       </c>
-      <c r="CF2">
+      <c r="CF2" t="n">
         <v>163687</v>
       </c>
-      <c r="CG2">
+      <c r="CG2" t="n">
         <v>165992</v>
       </c>
-      <c r="CH2">
+      <c r="CH2" t="n">
         <v>170313</v>
       </c>
-      <c r="CI2">
+      <c r="CI2" t="n">
         <v>167784</v>
       </c>
-      <c r="CJ2">
+      <c r="CJ2" t="n">
         <v>162328</v>
       </c>
-      <c r="CK2">
+      <c r="CK2" t="n">
         <v>159074</v>
       </c>
-      <c r="CL2">
+      <c r="CL2" t="n">
         <v>155324</v>
       </c>
-      <c r="CM2">
+      <c r="CM2" t="n">
         <v>151472</v>
       </c>
-      <c r="CN2">
+      <c r="CN2" t="n">
         <v>152711</v>
       </c>
-      <c r="CO2">
+      <c r="CO2" t="n">
         <v>155581</v>
       </c>
-      <c r="CP2">
+      <c r="CP2" t="n">
         <v>150022</v>
       </c>
-      <c r="CQ2">
+      <c r="CQ2" t="n">
         <v>145005</v>
       </c>
-      <c r="CR2">
+      <c r="CR2" t="n">
         <v>149849</v>
       </c>
-      <c r="CS2">
+      <c r="CS2" t="n">
         <v>161245</v>
       </c>
-      <c r="CT2">
+      <c r="CT2" t="n">
         <v>157766</v>
       </c>
-      <c r="CU2">
+      <c r="CU2" t="n">
         <v>162087</v>
       </c>
-      <c r="CV2">
+      <c r="CV2" t="n">
         <v>160307</v>
       </c>
-      <c r="CW2">
+      <c r="CW2" t="n">
         <v>160424</v>
       </c>
-      <c r="CX2">
+      <c r="CX2" t="n">
         <v>171673</v>
       </c>
-      <c r="CY2">
+      <c r="CY2" t="n">
         <v>175718</v>
       </c>
-      <c r="CZ2">
+      <c r="CZ2" t="n">
         <v>165269</v>
       </c>
-      <c r="DA2">
+      <c r="DA2" t="n">
         <v>165890</v>
       </c>
-      <c r="DB2">
+      <c r="DB2" t="n">
         <v>172608</v>
       </c>
-      <c r="DC2">
+      <c r="DC2" t="n">
         <v>169429</v>
       </c>
-      <c r="DD2">
+      <c r="DD2" t="n">
         <v>167651</v>
       </c>
-      <c r="DE2">
+      <c r="DE2" t="n">
         <v>162890</v>
       </c>
-      <c r="DF2">
+      <c r="DF2" t="n">
         <v>159116</v>
       </c>
-      <c r="DG2">
+      <c r="DG2" t="n">
         <v>162220</v>
       </c>
-      <c r="DH2">
+      <c r="DH2" t="n">
         <v>163534</v>
       </c>
-      <c r="DI2">
+      <c r="DI2" t="n">
         <v>163213</v>
       </c>
-      <c r="DJ2">
+      <c r="DJ2" t="n">
         <v>161430</v>
       </c>
-      <c r="DK2">
+      <c r="DK2" t="n">
         <v>165010</v>
       </c>
-      <c r="DL2">
+      <c r="DL2" t="n">
         <v>166174</v>
       </c>
-      <c r="DM2">
+      <c r="DM2" t="n">
         <v>162752</v>
       </c>
-      <c r="DN2">
+      <c r="DN2" t="n">
         <v>168297</v>
       </c>
     </row>
-    <row r="3" spans="1:118">
-      <c r="A3" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Non- Agriculture</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>940981</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>965413</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>1026693</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>1035080</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>1052897</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>1064031</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>1063255</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>1107672</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>1144769</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>1167926</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>1164757</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>1185332</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>1186333</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>1247611</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>1252217</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>1242668</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>1185112</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>1225129</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>1211672</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>1159956</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>1113237</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>1073545</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>1083505</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>1107202</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>1114934</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>1126811</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>1167929</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>1168907</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="n">
         <v>1185922</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="n">
         <v>1181682</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" t="n">
         <v>1189533</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" t="n">
         <v>1215255</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" t="n">
         <v>1219584</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="n">
         <v>1231261</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" t="n">
         <v>1236427</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" t="n">
         <v>1251297</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" t="n">
         <v>1280978</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" t="n">
         <v>1312372</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" t="n">
         <v>1326508</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" t="n">
         <v>1351040</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" t="n">
         <v>1373947</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" t="n">
         <v>1388047</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" t="n">
         <v>1418872</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" t="n">
         <v>1444337</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" t="n">
         <v>1467712</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" t="n">
         <v>1495552</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" t="n">
         <v>1512176</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" t="n">
         <v>1546885</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" t="n">
         <v>1538183</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" t="n">
         <v>1570591</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" t="n">
         <v>1587445</v>
       </c>
-      <c r="BA3">
+      <c r="BA3" t="n">
         <v>1603926</v>
       </c>
-      <c r="BB3">
+      <c r="BB3" t="n">
         <v>1621490</v>
       </c>
-      <c r="BC3">
+      <c r="BC3" t="n">
         <v>1644021</v>
       </c>
-      <c r="BD3">
+      <c r="BD3" t="n">
         <v>1657288</v>
       </c>
-      <c r="BE3">
+      <c r="BE3" t="n">
         <v>1697541</v>
       </c>
-      <c r="BF3">
+      <c r="BF3" t="n">
         <v>1731320</v>
       </c>
-      <c r="BG3">
+      <c r="BG3" t="n">
         <v>1735440</v>
       </c>
-      <c r="BH3">
+      <c r="BH3" t="n">
         <v>1758668</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" t="n">
         <v>1779975</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" t="n">
         <v>1784546</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" t="n">
         <v>1793954</v>
       </c>
-      <c r="BL3">
+      <c r="BL3" t="n">
         <v>1797497</v>
       </c>
-      <c r="BM3">
+      <c r="BM3" t="n">
         <v>1742195</v>
       </c>
-      <c r="BN3">
+      <c r="BN3" t="n">
         <v>1686006</v>
       </c>
-      <c r="BO3">
+      <c r="BO3" t="n">
         <v>1737304</v>
       </c>
-      <c r="BP3">
+      <c r="BP3" t="n">
         <v>1792758</v>
       </c>
-      <c r="BQ3">
+      <c r="BQ3" t="n">
         <v>1853720</v>
       </c>
-      <c r="BR3">
+      <c r="BR3" t="n">
         <v>1909710</v>
       </c>
-      <c r="BS3">
+      <c r="BS3" t="n">
         <v>1897103</v>
       </c>
-      <c r="BT3">
+      <c r="BT3" t="n">
         <v>1914317</v>
       </c>
-      <c r="BU3">
+      <c r="BU3" t="n">
         <v>1935758</v>
       </c>
-      <c r="BV3">
+      <c r="BV3" t="n">
         <v>1963995</v>
       </c>
-      <c r="BW3">
+      <c r="BW3" t="n">
         <v>1925841</v>
       </c>
-      <c r="BX3">
+      <c r="BX3" t="n">
         <v>1971616</v>
       </c>
-      <c r="BY3">
+      <c r="BY3" t="n">
         <v>1805250</v>
       </c>
-      <c r="BZ3">
+      <c r="BZ3" t="n">
         <v>2003996</v>
       </c>
-      <c r="CA3">
+      <c r="CA3" t="n">
         <v>2064194</v>
       </c>
-      <c r="CB3">
+      <c r="CB3" t="n">
         <v>2078598</v>
       </c>
-      <c r="CC3">
+      <c r="CC3" t="n">
         <v>2125446</v>
       </c>
-      <c r="CD3">
+      <c r="CD3" t="n">
         <v>2119764</v>
       </c>
-      <c r="CE3">
+      <c r="CE3" t="n">
         <v>2126407</v>
       </c>
-      <c r="CF3">
+      <c r="CF3" t="n">
         <v>2141683</v>
       </c>
-      <c r="CG3">
+      <c r="CG3" t="n">
         <v>2121980</v>
       </c>
-      <c r="CH3">
+      <c r="CH3" t="n">
         <v>2107531</v>
       </c>
-      <c r="CI3">
+      <c r="CI3" t="n">
         <v>2140244</v>
       </c>
-      <c r="CJ3">
+      <c r="CJ3" t="n">
         <v>2171077</v>
       </c>
-      <c r="CK3">
+      <c r="CK3" t="n">
         <v>2190500</v>
       </c>
-      <c r="CL3">
+      <c r="CL3" t="n">
         <v>2209172</v>
       </c>
-      <c r="CM3">
+      <c r="CM3" t="n">
         <v>2226656</v>
       </c>
-      <c r="CN3">
+      <c r="CN3" t="n">
         <v>2258108</v>
       </c>
-      <c r="CO3">
+      <c r="CO3" t="n">
         <v>2277265</v>
       </c>
-      <c r="CP3">
+      <c r="CP3" t="n">
         <v>2299944</v>
       </c>
-      <c r="CQ3">
+      <c r="CQ3" t="n">
         <v>2326962</v>
       </c>
-      <c r="CR3">
+      <c r="CR3" t="n">
         <v>2340358</v>
       </c>
-      <c r="CS3">
+      <c r="CS3" t="n">
         <v>2351504</v>
       </c>
-      <c r="CT3">
+      <c r="CT3" t="n">
         <v>2385121</v>
       </c>
-      <c r="CU3">
+      <c r="CU3" t="n">
         <v>2415546</v>
       </c>
-      <c r="CV3">
+      <c r="CV3" t="n">
         <v>2446973</v>
       </c>
-      <c r="CW3">
+      <c r="CW3" t="n">
         <v>2454453</v>
       </c>
-      <c r="CX3">
+      <c r="CX3" t="n">
         <v>2496037</v>
       </c>
-      <c r="CY3">
+      <c r="CY3" t="n">
         <v>2522806</v>
       </c>
-      <c r="CZ3">
+      <c r="CZ3" t="n">
         <v>2532542</v>
       </c>
-      <c r="DA3">
+      <c r="DA3" t="n">
         <v>2542234</v>
       </c>
-      <c r="DB3">
+      <c r="DB3" t="n">
         <v>2568045</v>
       </c>
-      <c r="DC3">
+      <c r="DC3" t="n">
         <v>2597832</v>
       </c>
-      <c r="DD3">
+      <c r="DD3" t="n">
         <v>2602211</v>
       </c>
-      <c r="DE3">
+      <c r="DE3" t="n">
         <v>2571239</v>
       </c>
-      <c r="DF3">
+      <c r="DF3" t="n">
         <v>2525203</v>
       </c>
-      <c r="DG3">
+      <c r="DG3" t="n">
         <v>2263724</v>
       </c>
-      <c r="DH3">
+      <c r="DH3" t="n">
         <v>2433851</v>
       </c>
-      <c r="DI3">
+      <c r="DI3" t="n">
         <v>2441617</v>
       </c>
-      <c r="DJ3">
+      <c r="DJ3" t="n">
         <v>2459484</v>
       </c>
-      <c r="DK3">
+      <c r="DK3" t="n">
         <v>2454391</v>
       </c>
-      <c r="DL3">
+      <c r="DL3" t="n">
         <v>2428000</v>
       </c>
-      <c r="DM3">
+      <c r="DM3" t="n">
         <v>2484532</v>
       </c>
-      <c r="DN3">
+      <c r="DN3" t="n">
         <v>2510285</v>
       </c>
     </row>
-    <row r="4" spans="1:118">
-      <c r="A4" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Mining and Quarrying</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>20063</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>21340</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>22687</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>20428</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>22687</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>22461</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>23023</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>23836</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>23525</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>24767</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>24573</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>24313</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>27278</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>27935</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>28221</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>30194</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>29737</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>29906</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>31486</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>29391</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>27849</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>27530</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>28379</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>28898</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>28492</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>29552</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>30698</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>31822</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>32749</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>31633</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" t="n">
         <v>30982</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" t="n">
         <v>31244</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" t="n">
         <v>30641</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="n">
         <v>32389</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" t="n">
         <v>31751</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" t="n">
         <v>31896</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" t="n">
         <v>33740</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" t="n">
         <v>34328</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" t="n">
         <v>35123</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" t="n">
         <v>33899</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" t="n">
         <v>36458</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" t="n">
         <v>37197</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" t="n">
         <v>37501</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" t="n">
         <v>38451</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" t="n">
         <v>37814</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" t="n">
         <v>37692</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" t="n">
         <v>38359</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" t="n">
         <v>39702</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" t="n">
         <v>40453</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" t="n">
         <v>40369</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" t="n">
         <v>45601</v>
       </c>
-      <c r="BA4">
+      <c r="BA4" t="n">
         <v>45698</v>
       </c>
-      <c r="BB4">
+      <c r="BB4" t="n">
         <v>47382</v>
       </c>
-      <c r="BC4">
+      <c r="BC4" t="n">
         <v>46499</v>
       </c>
-      <c r="BD4">
+      <c r="BD4" t="n">
         <v>46654</v>
       </c>
-      <c r="BE4">
+      <c r="BE4" t="n">
         <v>47022</v>
       </c>
-      <c r="BF4">
+      <c r="BF4" t="n">
         <v>47796</v>
       </c>
-      <c r="BG4">
+      <c r="BG4" t="n">
         <v>48632</v>
       </c>
-      <c r="BH4">
+      <c r="BH4" t="n">
         <v>48393</v>
       </c>
-      <c r="BI4">
+      <c r="BI4" t="n">
         <v>49477</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ4" t="n">
         <v>49813</v>
       </c>
-      <c r="BK4">
+      <c r="BK4" t="n">
         <v>52818</v>
       </c>
-      <c r="BL4">
+      <c r="BL4" t="n">
         <v>53241</v>
       </c>
-      <c r="BM4">
+      <c r="BM4" t="n">
         <v>50984</v>
       </c>
-      <c r="BN4">
+      <c r="BN4" t="n">
         <v>51317</v>
       </c>
-      <c r="BO4">
+      <c r="BO4" t="n">
         <v>51622</v>
       </c>
-      <c r="BP4">
+      <c r="BP4" t="n">
         <v>51914</v>
       </c>
-      <c r="BQ4">
+      <c r="BQ4" t="n">
         <v>54717</v>
       </c>
-      <c r="BR4">
+      <c r="BR4" t="n">
         <v>54645</v>
       </c>
-      <c r="BS4">
+      <c r="BS4" t="n">
         <v>55387</v>
       </c>
-      <c r="BT4">
+      <c r="BT4" t="n">
         <v>57252</v>
       </c>
-      <c r="BU4">
+      <c r="BU4" t="n">
         <v>56927</v>
       </c>
-      <c r="BV4">
+      <c r="BV4" t="n">
         <v>56349</v>
       </c>
-      <c r="BW4">
+      <c r="BW4" t="n">
         <v>55435</v>
       </c>
-      <c r="BX4">
+      <c r="BX4" t="n">
         <v>54523</v>
       </c>
-      <c r="BY4">
+      <c r="BY4" t="n">
         <v>54325</v>
       </c>
-      <c r="BZ4">
+      <c r="BZ4" t="n">
         <v>57058</v>
       </c>
-      <c r="CA4">
+      <c r="CA4" t="n">
         <v>58486</v>
       </c>
-      <c r="CB4">
+      <c r="CB4" t="n">
         <v>61133</v>
       </c>
-      <c r="CC4">
+      <c r="CC4" t="n">
         <v>60997</v>
       </c>
-      <c r="CD4">
+      <c r="CD4" t="n">
         <v>60969</v>
       </c>
-      <c r="CE4">
+      <c r="CE4" t="n">
         <v>60943</v>
       </c>
-      <c r="CF4">
+      <c r="CF4" t="n">
         <v>59726</v>
       </c>
-      <c r="CG4">
+      <c r="CG4" t="n">
         <v>61155</v>
       </c>
-      <c r="CH4">
+      <c r="CH4" t="n">
         <v>58779</v>
       </c>
-      <c r="CI4">
+      <c r="CI4" t="n">
         <v>60090</v>
       </c>
-      <c r="CJ4">
+      <c r="CJ4" t="n">
         <v>59483</v>
       </c>
-      <c r="CK4">
+      <c r="CK4" t="n">
         <v>60438</v>
       </c>
-      <c r="CL4">
+      <c r="CL4" t="n">
         <v>59425</v>
       </c>
-      <c r="CM4">
+      <c r="CM4" t="n">
         <v>60860</v>
       </c>
-      <c r="CN4">
+      <c r="CN4" t="n">
         <v>61855</v>
       </c>
-      <c r="CO4">
+      <c r="CO4" t="n">
         <v>62340</v>
       </c>
-      <c r="CP4">
+      <c r="CP4" t="n">
         <v>63514</v>
       </c>
-      <c r="CQ4">
+      <c r="CQ4" t="n">
         <v>62418</v>
       </c>
-      <c r="CR4">
+      <c r="CR4" t="n">
         <v>61827</v>
       </c>
-      <c r="CS4">
+      <c r="CS4" t="n">
         <v>58831</v>
       </c>
-      <c r="CT4">
+      <c r="CT4" t="n">
         <v>58984</v>
       </c>
-      <c r="CU4">
+      <c r="CU4" t="n">
         <v>56898</v>
       </c>
-      <c r="CV4">
+      <c r="CV4" t="n">
         <v>57554</v>
       </c>
-      <c r="CW4">
+      <c r="CW4" t="n">
         <v>58431</v>
       </c>
-      <c r="CX4">
+      <c r="CX4" t="n">
         <v>56293</v>
       </c>
-      <c r="CY4">
+      <c r="CY4" t="n">
         <v>55692</v>
       </c>
-      <c r="CZ4">
+      <c r="CZ4" t="n">
         <v>56204</v>
       </c>
-      <c r="DA4">
+      <c r="DA4" t="n">
         <v>56958</v>
       </c>
-      <c r="DB4">
+      <c r="DB4" t="n">
         <v>55717</v>
       </c>
-      <c r="DC4">
+      <c r="DC4" t="n">
         <v>58065</v>
       </c>
-      <c r="DD4">
+      <c r="DD4" t="n">
         <v>57843</v>
       </c>
-      <c r="DE4">
+      <c r="DE4" t="n">
         <v>57448</v>
       </c>
-      <c r="DF4">
+      <c r="DF4" t="n">
         <v>55604</v>
       </c>
-      <c r="DG4">
+      <c r="DG4" t="n">
         <v>49138</v>
       </c>
-      <c r="DH4">
+      <c r="DH4" t="n">
         <v>52891</v>
       </c>
-      <c r="DI4">
+      <c r="DI4" t="n">
         <v>50871</v>
       </c>
-      <c r="DJ4">
+      <c r="DJ4" t="n">
         <v>51949</v>
       </c>
-      <c r="DK4">
+      <c r="DK4" t="n">
         <v>50698</v>
       </c>
-      <c r="DL4">
+      <c r="DL4" t="n">
         <v>46985</v>
       </c>
-      <c r="DM4">
+      <c r="DM4" t="n">
         <v>44092</v>
       </c>
-      <c r="DN4">
+      <c r="DN4" t="n">
         <v>42086</v>
       </c>
     </row>
-    <row r="5" spans="1:118">
-      <c r="A5" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Manu- facturing</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>267937</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>276331</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>283296</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>279289</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>302240</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>293596</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>295160</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>307091</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>320044</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>331043</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>339930</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>342105</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>344869</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>352411</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>356865</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>356721</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>360518</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>361949</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>363372</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>337321</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>327636</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>317897</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>320798</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="n">
         <v>338616</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" t="n">
         <v>348187</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="n">
         <v>350614</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" t="n">
         <v>367821</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" t="n">
         <v>368000</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" t="n">
         <v>367759</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" t="n">
         <v>370175</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" t="n">
         <v>370538</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" t="n">
         <v>373609</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" t="n">
         <v>372869</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" t="n">
         <v>375624</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" t="n">
         <v>379410</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" t="n">
         <v>384167</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" t="n">
         <v>390100</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" t="n">
         <v>406173</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" t="n">
         <v>421401</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" t="n">
         <v>429314</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" t="n">
         <v>442250</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" t="n">
         <v>450386</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" t="n">
         <v>453852</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" t="n">
         <v>467529</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" t="n">
         <v>479193</v>
       </c>
-      <c r="AU5">
+      <c r="AU5" t="n">
         <v>481258</v>
       </c>
-      <c r="AV5">
+      <c r="AV5" t="n">
         <v>490824</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" t="n">
         <v>497800</v>
       </c>
-      <c r="AX5">
+      <c r="AX5" t="n">
         <v>494524</v>
       </c>
-      <c r="AY5">
+      <c r="AY5" t="n">
         <v>507836</v>
       </c>
-      <c r="AZ5">
+      <c r="AZ5" t="n">
         <v>512279</v>
       </c>
-      <c r="BA5">
+      <c r="BA5" t="n">
         <v>516520</v>
       </c>
-      <c r="BB5">
+      <c r="BB5" t="n">
         <v>520872</v>
       </c>
-      <c r="BC5">
+      <c r="BC5" t="n">
         <v>530174</v>
       </c>
-      <c r="BD5">
+      <c r="BD5" t="n">
         <v>538161</v>
       </c>
-      <c r="BE5">
+      <c r="BE5" t="n">
         <v>556649</v>
       </c>
-      <c r="BF5">
+      <c r="BF5" t="n">
         <v>570958</v>
       </c>
-      <c r="BG5">
+      <c r="BG5" t="n">
         <v>569026</v>
       </c>
-      <c r="BH5">
+      <c r="BH5" t="n">
         <v>573224</v>
       </c>
-      <c r="BI5">
+      <c r="BI5" t="n">
         <v>589544</v>
       </c>
-      <c r="BJ5">
+      <c r="BJ5" t="n">
         <v>596622</v>
       </c>
-      <c r="BK5">
+      <c r="BK5" t="n">
         <v>593356</v>
       </c>
-      <c r="BL5">
+      <c r="BL5" t="n">
         <v>599715</v>
       </c>
-      <c r="BM5">
+      <c r="BM5" t="n">
         <v>569231</v>
       </c>
-      <c r="BN5">
+      <c r="BN5" t="n">
         <v>530581</v>
       </c>
-      <c r="BO5">
+      <c r="BO5" t="n">
         <v>557770</v>
       </c>
-      <c r="BP5">
+      <c r="BP5" t="n">
         <v>582985</v>
       </c>
-      <c r="BQ5">
+      <c r="BQ5" t="n">
         <v>614984</v>
       </c>
-      <c r="BR5">
+      <c r="BR5" t="n">
         <v>647933</v>
       </c>
-      <c r="BS5">
+      <c r="BS5" t="n">
         <v>635677</v>
       </c>
-      <c r="BT5">
+      <c r="BT5" t="n">
         <v>629994</v>
       </c>
-      <c r="BU5">
+      <c r="BU5" t="n">
         <v>626092</v>
       </c>
-      <c r="BV5">
+      <c r="BV5" t="n">
         <v>636426</v>
       </c>
-      <c r="BW5">
+      <c r="BW5" t="n">
         <v>615739</v>
       </c>
-      <c r="BX5">
+      <c r="BX5" t="n">
         <v>636669</v>
       </c>
-      <c r="BY5">
+      <c r="BY5" t="n">
         <v>522700</v>
       </c>
-      <c r="BZ5">
+      <c r="BZ5" t="n">
         <v>618192</v>
       </c>
-      <c r="CA5">
+      <c r="CA5" t="n">
         <v>645002</v>
       </c>
-      <c r="CB5">
+      <c r="CB5" t="n">
         <v>645318</v>
       </c>
-      <c r="CC5">
+      <c r="CC5" t="n">
         <v>670499</v>
       </c>
-      <c r="CD5">
+      <c r="CD5" t="n">
         <v>653641</v>
       </c>
-      <c r="CE5">
+      <c r="CE5" t="n">
         <v>652836</v>
       </c>
-      <c r="CF5">
+      <c r="CF5" t="n">
         <v>662168</v>
       </c>
-      <c r="CG5">
+      <c r="CG5" t="n">
         <v>657485</v>
       </c>
-      <c r="CH5">
+      <c r="CH5" t="n">
         <v>649815</v>
       </c>
-      <c r="CI5">
+      <c r="CI5" t="n">
         <v>657422</v>
       </c>
-      <c r="CJ5">
+      <c r="CJ5" t="n">
         <v>661100</v>
       </c>
-      <c r="CK5">
+      <c r="CK5" t="n">
         <v>659948</v>
       </c>
-      <c r="CL5">
+      <c r="CL5" t="n">
         <v>668808</v>
       </c>
-      <c r="CM5">
+      <c r="CM5" t="n">
         <v>658507</v>
       </c>
-      <c r="CN5">
+      <c r="CN5" t="n">
         <v>668759</v>
       </c>
-      <c r="CO5">
+      <c r="CO5" t="n">
         <v>671910</v>
       </c>
-      <c r="CP5">
+      <c r="CP5" t="n">
         <v>672926</v>
       </c>
-      <c r="CQ5">
+      <c r="CQ5" t="n">
         <v>685553</v>
       </c>
-      <c r="CR5">
+      <c r="CR5" t="n">
         <v>683963</v>
       </c>
-      <c r="CS5">
+      <c r="CS5" t="n">
         <v>686104</v>
       </c>
-      <c r="CT5">
+      <c r="CT5" t="n">
         <v>691463</v>
       </c>
-      <c r="CU5">
+      <c r="CU5" t="n">
         <v>699235</v>
       </c>
-      <c r="CV5">
+      <c r="CV5" t="n">
         <v>711531</v>
       </c>
-      <c r="CW5">
+      <c r="CW5" t="n">
         <v>704964</v>
       </c>
-      <c r="CX5">
+      <c r="CX5" t="n">
         <v>721735</v>
       </c>
-      <c r="CY5">
+      <c r="CY5" t="n">
         <v>725244</v>
       </c>
-      <c r="CZ5">
+      <c r="CZ5" t="n">
         <v>726061</v>
       </c>
-      <c r="DA5">
+      <c r="DA5" t="n">
         <v>730257</v>
       </c>
-      <c r="DB5">
+      <c r="DB5" t="n">
         <v>724695</v>
       </c>
-      <c r="DC5">
+      <c r="DC5" t="n">
         <v>727774</v>
       </c>
-      <c r="DD5">
+      <c r="DD5" t="n">
         <v>721391</v>
       </c>
-      <c r="DE5">
+      <c r="DE5" t="n">
         <v>706770</v>
       </c>
-      <c r="DF5">
+      <c r="DF5" t="n">
         <v>707292</v>
       </c>
-      <c r="DG5">
+      <c r="DG5" t="n">
         <v>623528</v>
       </c>
-      <c r="DH5">
+      <c r="DH5" t="n">
         <v>686025</v>
       </c>
-      <c r="DI5">
+      <c r="DI5" t="n">
         <v>700917</v>
       </c>
-      <c r="DJ5">
+      <c r="DJ5" t="n">
         <v>716932</v>
       </c>
-      <c r="DK5">
+      <c r="DK5" t="n">
         <v>729519</v>
       </c>
-      <c r="DL5">
+      <c r="DL5" t="n">
         <v>680597</v>
       </c>
-      <c r="DM5">
+      <c r="DM5" t="n">
         <v>726235</v>
       </c>
-      <c r="DN5">
+      <c r="DN5" t="n">
         <v>730847</v>
       </c>
     </row>
-    <row r="6" spans="1:118">
-      <c r="A6" s="1" t="s">
-        <v>121</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>72178</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>76394</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>79519</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>72495</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>82309</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>83667</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>83540</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>93696</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>91491</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>94348</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>89507</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>96435</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>103693</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>101381</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>93453</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>102917</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>70709</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>77986</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>75498</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>65398</v>
       </c>
-      <c r="V6">
+      <c r="V6" t="n">
         <v>54730</v>
       </c>
-      <c r="W6">
+      <c r="W6" t="n">
         <v>47307</v>
       </c>
-      <c r="X6">
+      <c r="X6" t="n">
         <v>46799</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" t="n">
         <v>45543</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" t="n">
         <v>38230</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" t="n">
         <v>47633</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" t="n">
         <v>45822</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" t="n">
         <v>43835</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" t="n">
         <v>42647</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" t="n">
         <v>40100</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" t="n">
         <v>38118</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" t="n">
         <v>36619</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" t="n">
         <v>39482</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" t="n">
         <v>36933</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" t="n">
         <v>40951</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" t="n">
         <v>40483</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" t="n">
         <v>41827</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" t="n">
         <v>43485</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" t="n">
         <v>40787</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" t="n">
         <v>40653</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" t="n">
         <v>40548</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" t="n">
         <v>42712</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" t="n">
         <v>44102</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" t="n">
         <v>44144</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" t="n">
         <v>44323</v>
       </c>
-      <c r="AU6">
+      <c r="AU6" t="n">
         <v>44823</v>
       </c>
-      <c r="AV6">
+      <c r="AV6" t="n">
         <v>46485</v>
       </c>
-      <c r="AW6">
+      <c r="AW6" t="n">
         <v>50580</v>
       </c>
-      <c r="AX6">
+      <c r="AX6" t="n">
         <v>50987</v>
       </c>
-      <c r="AY6">
+      <c r="AY6" t="n">
         <v>51057</v>
       </c>
-      <c r="AZ6">
+      <c r="AZ6" t="n">
         <v>50462</v>
       </c>
-      <c r="BA6">
+      <c r="BA6" t="n">
         <v>51770</v>
       </c>
-      <c r="BB6">
+      <c r="BB6" t="n">
         <v>52017</v>
       </c>
-      <c r="BC6">
+      <c r="BC6" t="n">
         <v>51420</v>
       </c>
-      <c r="BD6">
+      <c r="BD6" t="n">
         <v>51333</v>
       </c>
-      <c r="BE6">
+      <c r="BE6" t="n">
         <v>51862</v>
       </c>
-      <c r="BF6">
+      <c r="BF6" t="n">
         <v>52289</v>
       </c>
-      <c r="BG6">
+      <c r="BG6" t="n">
         <v>53274</v>
       </c>
-      <c r="BH6">
+      <c r="BH6" t="n">
         <v>53227</v>
       </c>
-      <c r="BI6">
+      <c r="BI6" t="n">
         <v>56394</v>
       </c>
-      <c r="BJ6">
+      <c r="BJ6" t="n">
         <v>52855</v>
       </c>
-      <c r="BK6">
+      <c r="BK6" t="n">
         <v>50805</v>
       </c>
-      <c r="BL6">
+      <c r="BL6" t="n">
         <v>50189</v>
       </c>
-      <c r="BM6">
+      <c r="BM6" t="n">
         <v>49431</v>
       </c>
-      <c r="BN6">
+      <c r="BN6" t="n">
         <v>50595</v>
       </c>
-      <c r="BO6">
+      <c r="BO6" t="n">
         <v>52522</v>
       </c>
-      <c r="BP6">
+      <c r="BP6" t="n">
         <v>53105</v>
       </c>
-      <c r="BQ6">
+      <c r="BQ6" t="n">
         <v>54548</v>
       </c>
-      <c r="BR6">
+      <c r="BR6" t="n">
         <v>56322</v>
       </c>
-      <c r="BS6">
+      <c r="BS6" t="n">
         <v>58403</v>
       </c>
-      <c r="BT6">
+      <c r="BT6" t="n">
         <v>55885</v>
       </c>
-      <c r="BU6">
+      <c r="BU6" t="n">
         <v>58018</v>
       </c>
-      <c r="BV6">
+      <c r="BV6" t="n">
         <v>55570</v>
       </c>
-      <c r="BW6">
+      <c r="BW6" t="n">
         <v>53841</v>
       </c>
-      <c r="BX6">
+      <c r="BX6" t="n">
         <v>54336</v>
       </c>
-      <c r="BY6">
+      <c r="BY6" t="n">
         <v>55000</v>
       </c>
-      <c r="BZ6">
+      <c r="BZ6" t="n">
         <v>56064</v>
       </c>
-      <c r="CA6">
+      <c r="CA6" t="n">
         <v>57585</v>
       </c>
-      <c r="CB6">
+      <c r="CB6" t="n">
         <v>60274</v>
       </c>
-      <c r="CC6">
+      <c r="CC6" t="n">
         <v>62661</v>
       </c>
-      <c r="CD6">
+      <c r="CD6" t="n">
         <v>60883</v>
       </c>
-      <c r="CE6">
+      <c r="CE6" t="n">
         <v>59461</v>
       </c>
-      <c r="CF6">
+      <c r="CF6" t="n">
         <v>58835</v>
       </c>
-      <c r="CG6">
+      <c r="CG6" t="n">
         <v>55822</v>
       </c>
-      <c r="CH6">
+      <c r="CH6" t="n">
         <v>54903</v>
       </c>
-      <c r="CI6">
+      <c r="CI6" t="n">
         <v>57683</v>
       </c>
-      <c r="CJ6">
+      <c r="CJ6" t="n">
         <v>58949</v>
       </c>
-      <c r="CK6">
+      <c r="CK6" t="n">
         <v>58210</v>
       </c>
-      <c r="CL6">
+      <c r="CL6" t="n">
         <v>64842</v>
       </c>
-      <c r="CM6">
+      <c r="CM6" t="n">
         <v>66476</v>
       </c>
-      <c r="CN6">
+      <c r="CN6" t="n">
         <v>66802</v>
       </c>
-      <c r="CO6">
+      <c r="CO6" t="n">
         <v>71317</v>
       </c>
-      <c r="CP6">
+      <c r="CP6" t="n">
         <v>71345</v>
       </c>
-      <c r="CQ6">
+      <c r="CQ6" t="n">
         <v>72867</v>
       </c>
-      <c r="CR6">
+      <c r="CR6" t="n">
         <v>70927</v>
       </c>
-      <c r="CS6">
+      <c r="CS6" t="n">
         <v>75432</v>
       </c>
-      <c r="CT6">
+      <c r="CT6" t="n">
         <v>72396</v>
       </c>
-      <c r="CU6">
+      <c r="CU6" t="n">
         <v>69230</v>
       </c>
-      <c r="CV6">
+      <c r="CV6" t="n">
         <v>69215</v>
       </c>
-      <c r="CW6">
+      <c r="CW6" t="n">
         <v>70650</v>
       </c>
-      <c r="CX6">
+      <c r="CX6" t="n">
         <v>72561</v>
       </c>
-      <c r="CY6">
+      <c r="CY6" t="n">
         <v>70742</v>
       </c>
-      <c r="CZ6">
+      <c r="CZ6" t="n">
         <v>71291</v>
       </c>
-      <c r="DA6">
+      <c r="DA6" t="n">
         <v>73545</v>
       </c>
-      <c r="DB6">
+      <c r="DB6" t="n">
         <v>74910</v>
       </c>
-      <c r="DC6">
+      <c r="DC6" t="n">
         <v>72738</v>
       </c>
-      <c r="DD6">
+      <c r="DD6" t="n">
         <v>72262</v>
       </c>
-      <c r="DE6">
+      <c r="DE6" t="n">
         <v>72214</v>
       </c>
-      <c r="DF6">
+      <c r="DF6" t="n">
         <v>67678</v>
       </c>
-      <c r="DG6">
+      <c r="DG6" t="n">
         <v>76945</v>
       </c>
-      <c r="DH6">
+      <c r="DH6" t="n">
         <v>78463</v>
       </c>
-      <c r="DI6">
+      <c r="DI6" t="n">
         <v>72427</v>
       </c>
-      <c r="DJ6">
+      <c r="DJ6" t="n">
         <v>77255</v>
       </c>
-      <c r="DK6">
+      <c r="DK6" t="n">
         <v>78731</v>
       </c>
-      <c r="DL6">
+      <c r="DL6" t="n">
         <v>74955</v>
       </c>
-      <c r="DM6">
+      <c r="DM6" t="n">
         <v>72324</v>
       </c>
-      <c r="DN6">
+      <c r="DN6" t="n">
         <v>73014</v>
       </c>
     </row>
-    <row r="7" spans="1:118">
-      <c r="A7" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Wholesale and Retail Trade, Repair of Vehicles and Personal and Household Goods</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>176471</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>182475</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>216868</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>213498</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>207486</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>209151</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>217647</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>231111</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>241663</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>238398</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>235104</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>235648</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>231615</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>252295</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>247623</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>241860</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>237890</v>
       </c>
-      <c r="S7">
+      <c r="S7" t="n">
         <v>241794</v>
       </c>
-      <c r="T7">
+      <c r="T7" t="n">
         <v>238076</v>
       </c>
-      <c r="U7">
+      <c r="U7" t="n">
         <v>232078</v>
       </c>
-      <c r="V7">
+      <c r="V7" t="n">
         <v>217529</v>
       </c>
-      <c r="W7">
+      <c r="W7" t="n">
         <v>208760</v>
       </c>
-      <c r="X7">
+      <c r="X7" t="n">
         <v>207601</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" t="n">
         <v>208153</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" t="n">
         <v>218041</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" t="n">
         <v>205239</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" t="n">
         <v>212326</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" t="n">
         <v>213503</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" t="n">
         <v>215256</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" t="n">
         <v>214636</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" t="n">
         <v>216071</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" t="n">
         <v>220346</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" t="n">
         <v>223954</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" t="n">
         <v>223010</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" t="n">
         <v>220734</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" t="n">
         <v>221870</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" t="n">
         <v>224278</v>
       </c>
-      <c r="AM7">
+      <c r="AM7" t="n">
         <v>224168</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" t="n">
         <v>225964</v>
       </c>
-      <c r="AO7">
+      <c r="AO7" t="n">
         <v>232020</v>
       </c>
-      <c r="AP7">
+      <c r="AP7" t="n">
         <v>233250</v>
       </c>
-      <c r="AQ7">
+      <c r="AQ7" t="n">
         <v>237531</v>
       </c>
-      <c r="AR7">
+      <c r="AR7" t="n">
         <v>239923</v>
       </c>
-      <c r="AS7">
+      <c r="AS7" t="n">
         <v>240430</v>
       </c>
-      <c r="AT7">
+      <c r="AT7" t="n">
         <v>246232</v>
       </c>
-      <c r="AU7">
+      <c r="AU7" t="n">
         <v>248427</v>
       </c>
-      <c r="AV7">
+      <c r="AV7" t="n">
         <v>250602</v>
       </c>
-      <c r="AW7">
+      <c r="AW7" t="n">
         <v>250956</v>
       </c>
-      <c r="AX7">
+      <c r="AX7" t="n">
         <v>248868</v>
       </c>
-      <c r="AY7">
+      <c r="AY7" t="n">
         <v>250499</v>
       </c>
-      <c r="AZ7">
+      <c r="AZ7" t="n">
         <v>254062</v>
       </c>
-      <c r="BA7">
+      <c r="BA7" t="n">
         <v>259696</v>
       </c>
-      <c r="BB7">
+      <c r="BB7" t="n">
         <v>259635</v>
       </c>
-      <c r="BC7">
+      <c r="BC7" t="n">
         <v>263511</v>
       </c>
-      <c r="BD7">
+      <c r="BD7" t="n">
         <v>266855</v>
       </c>
-      <c r="BE7">
+      <c r="BE7" t="n">
         <v>274470</v>
       </c>
-      <c r="BF7">
+      <c r="BF7" t="n">
         <v>282000</v>
       </c>
-      <c r="BG7">
+      <c r="BG7" t="n">
         <v>282850</v>
       </c>
-      <c r="BH7">
+      <c r="BH7" t="n">
         <v>287405</v>
       </c>
-      <c r="BI7">
+      <c r="BI7" t="n">
         <v>285290</v>
       </c>
-      <c r="BJ7">
+      <c r="BJ7" t="n">
         <v>286294</v>
       </c>
-      <c r="BK7">
+      <c r="BK7" t="n">
         <v>287884</v>
       </c>
-      <c r="BL7">
+      <c r="BL7" t="n">
         <v>285234</v>
       </c>
-      <c r="BM7">
+      <c r="BM7" t="n">
         <v>275425</v>
       </c>
-      <c r="BN7">
+      <c r="BN7" t="n">
         <v>269800</v>
       </c>
-      <c r="BO7">
+      <c r="BO7" t="n">
         <v>270869</v>
       </c>
-      <c r="BP7">
+      <c r="BP7" t="n">
         <v>275403</v>
       </c>
-      <c r="BQ7">
+      <c r="BQ7" t="n">
         <v>292336</v>
       </c>
-      <c r="BR7">
+      <c r="BR7" t="n">
         <v>291359</v>
       </c>
-      <c r="BS7">
+      <c r="BS7" t="n">
         <v>302326</v>
       </c>
-      <c r="BT7">
+      <c r="BT7" t="n">
         <v>306813</v>
       </c>
-      <c r="BU7">
+      <c r="BU7" t="n">
         <v>309709</v>
       </c>
-      <c r="BV7">
+      <c r="BV7" t="n">
         <v>305551</v>
       </c>
-      <c r="BW7">
+      <c r="BW7" t="n">
         <v>297681</v>
       </c>
-      <c r="BX7">
+      <c r="BX7" t="n">
         <v>303496</v>
       </c>
-      <c r="BY7">
+      <c r="BY7" t="n">
         <v>300948</v>
       </c>
-      <c r="BZ7">
+      <c r="BZ7" t="n">
         <v>308016</v>
       </c>
-      <c r="CA7">
+      <c r="CA7" t="n">
         <v>318013</v>
       </c>
-      <c r="CB7">
+      <c r="CB7" t="n">
         <v>322976</v>
       </c>
-      <c r="CC7">
+      <c r="CC7" t="n">
         <v>323695</v>
       </c>
-      <c r="CD7">
+      <c r="CD7" t="n">
         <v>326344</v>
       </c>
-      <c r="CE7">
+      <c r="CE7" t="n">
         <v>320206</v>
       </c>
-      <c r="CF7">
+      <c r="CF7" t="n">
         <v>315366</v>
       </c>
-      <c r="CG7">
+      <c r="CG7" t="n">
         <v>316346</v>
       </c>
-      <c r="CH7">
+      <c r="CH7" t="n">
         <v>312715</v>
       </c>
-      <c r="CI7">
+      <c r="CI7" t="n">
         <v>313987</v>
       </c>
-      <c r="CJ7">
+      <c r="CJ7" t="n">
         <v>321084</v>
       </c>
-      <c r="CK7">
+      <c r="CK7" t="n">
         <v>322350</v>
       </c>
-      <c r="CL7">
+      <c r="CL7" t="n">
         <v>327670</v>
       </c>
-      <c r="CM7">
+      <c r="CM7" t="n">
         <v>332025</v>
       </c>
-      <c r="CN7">
+      <c r="CN7" t="n">
         <v>336321</v>
       </c>
-      <c r="CO7">
+      <c r="CO7" t="n">
         <v>344338</v>
       </c>
-      <c r="CP7">
+      <c r="CP7" t="n">
         <v>348470</v>
       </c>
-      <c r="CQ7">
+      <c r="CQ7" t="n">
         <v>352664</v>
       </c>
-      <c r="CR7">
+      <c r="CR7" t="n">
         <v>358193</v>
       </c>
-      <c r="CS7">
+      <c r="CS7" t="n">
         <v>363640</v>
       </c>
-      <c r="CT7">
+      <c r="CT7" t="n">
         <v>368951</v>
       </c>
-      <c r="CU7">
+      <c r="CU7" t="n">
         <v>375431</v>
       </c>
-      <c r="CV7">
+      <c r="CV7" t="n">
         <v>382803</v>
       </c>
-      <c r="CW7">
+      <c r="CW7" t="n">
         <v>387421</v>
       </c>
-      <c r="CX7">
+      <c r="CX7" t="n">
         <v>390925</v>
       </c>
-      <c r="CY7">
+      <c r="CY7" t="n">
         <v>402598</v>
       </c>
-      <c r="CZ7">
+      <c r="CZ7" t="n">
         <v>408596</v>
       </c>
-      <c r="DA7">
+      <c r="DA7" t="n">
         <v>410192</v>
       </c>
-      <c r="DB7">
+      <c r="DB7" t="n">
         <v>412203</v>
       </c>
-      <c r="DC7">
+      <c r="DC7" t="n">
         <v>421868</v>
       </c>
-      <c r="DD7">
+      <c r="DD7" t="n">
         <v>426448</v>
       </c>
-      <c r="DE7">
+      <c r="DE7" t="n">
         <v>425078</v>
       </c>
-      <c r="DF7">
+      <c r="DF7" t="n">
         <v>428744</v>
       </c>
-      <c r="DG7">
+      <c r="DG7" t="n">
         <v>382052</v>
       </c>
-      <c r="DH7">
+      <c r="DH7" t="n">
         <v>403554</v>
       </c>
-      <c r="DI7">
+      <c r="DI7" t="n">
         <v>410739</v>
       </c>
-      <c r="DJ7">
+      <c r="DJ7" t="n">
         <v>416739</v>
       </c>
-      <c r="DK7">
+      <c r="DK7" t="n">
         <v>403108</v>
       </c>
-      <c r="DL7">
+      <c r="DL7" t="n">
         <v>415375</v>
       </c>
-      <c r="DM7">
+      <c r="DM7" t="n">
         <v>422347</v>
       </c>
-      <c r="DN7">
+      <c r="DN7" t="n">
         <v>427885</v>
       </c>
     </row>
-    <row r="8" spans="1:118">
-      <c r="A8" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="B8">
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>Accommodation and food service activities</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
         <v>44628</v>
       </c>
-      <c r="C8">
+      <c r="C8" t="n">
         <v>44249</v>
       </c>
-      <c r="D8">
+      <c r="D8" t="n">
         <v>45863</v>
       </c>
-      <c r="E8">
+      <c r="E8" t="n">
         <v>45488</v>
       </c>
-      <c r="F8">
+      <c r="F8" t="n">
         <v>44220</v>
       </c>
-      <c r="G8">
+      <c r="G8" t="n">
         <v>43838</v>
       </c>
-      <c r="H8">
+      <c r="H8" t="n">
         <v>43414</v>
       </c>
-      <c r="I8">
+      <c r="I8" t="n">
         <v>44127</v>
       </c>
-      <c r="J8">
+      <c r="J8" t="n">
         <v>44701</v>
       </c>
-      <c r="K8">
+      <c r="K8" t="n">
         <v>45183</v>
       </c>
-      <c r="L8">
+      <c r="L8" t="n">
         <v>45588</v>
       </c>
-      <c r="M8">
+      <c r="M8" t="n">
         <v>45980</v>
       </c>
-      <c r="N8">
+      <c r="N8" t="n">
         <v>43871</v>
       </c>
-      <c r="O8">
+      <c r="O8" t="n">
         <v>47958</v>
       </c>
-      <c r="P8">
+      <c r="P8" t="n">
         <v>45935</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" t="n">
         <v>46470</v>
       </c>
-      <c r="R8">
+      <c r="R8" t="n">
         <v>46299</v>
       </c>
-      <c r="S8">
+      <c r="S8" t="n">
         <v>47995</v>
       </c>
-      <c r="T8">
+      <c r="T8" t="n">
         <v>44655</v>
       </c>
-      <c r="U8">
+      <c r="U8" t="n">
         <v>43475</v>
       </c>
-      <c r="V8">
+      <c r="V8" t="n">
         <v>45621</v>
       </c>
-      <c r="W8">
+      <c r="W8" t="n">
         <v>46431</v>
       </c>
-      <c r="X8">
+      <c r="X8" t="n">
         <v>47062</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" t="n">
         <v>47196</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" t="n">
         <v>46267</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" t="n">
         <v>46304</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" t="n">
         <v>48188</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" t="n">
         <v>49385</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" t="n">
         <v>49921</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" t="n">
         <v>50589</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" t="n">
         <v>51056</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" t="n">
         <v>51664</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" t="n">
         <v>53457</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" t="n">
         <v>53803</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" t="n">
         <v>53178</v>
       </c>
-      <c r="AK8">
+      <c r="AK8" t="n">
         <v>52822</v>
       </c>
-      <c r="AL8">
+      <c r="AL8" t="n">
         <v>54254</v>
       </c>
-      <c r="AM8">
+      <c r="AM8" t="n">
         <v>53771</v>
       </c>
-      <c r="AN8">
+      <c r="AN8" t="n">
         <v>53435</v>
       </c>
-      <c r="AO8">
+      <c r="AO8" t="n">
         <v>54672</v>
       </c>
-      <c r="AP8">
+      <c r="AP8" t="n">
         <v>56318</v>
       </c>
-      <c r="AQ8">
+      <c r="AQ8" t="n">
         <v>47251</v>
       </c>
-      <c r="AR8">
+      <c r="AR8" t="n">
         <v>54010</v>
       </c>
-      <c r="AS8">
+      <c r="AS8" t="n">
         <v>56586</v>
       </c>
-      <c r="AT8">
+      <c r="AT8" t="n">
         <v>57216</v>
       </c>
-      <c r="AU8">
+      <c r="AU8" t="n">
         <v>59066</v>
       </c>
-      <c r="AV8">
+      <c r="AV8" t="n">
         <v>59588</v>
       </c>
-      <c r="AW8">
+      <c r="AW8" t="n">
         <v>57646</v>
       </c>
-      <c r="AX8">
+      <c r="AX8" t="n">
         <v>54553</v>
       </c>
-      <c r="AY8">
+      <c r="AY8" t="n">
         <v>59012</v>
       </c>
-      <c r="AZ8">
+      <c r="AZ8" t="n">
         <v>60738</v>
       </c>
-      <c r="BA8">
+      <c r="BA8" t="n">
         <v>60948</v>
       </c>
-      <c r="BB8">
+      <c r="BB8" t="n">
         <v>62421</v>
       </c>
-      <c r="BC8">
+      <c r="BC8" t="n">
         <v>64700</v>
       </c>
-      <c r="BD8">
+      <c r="BD8" t="n">
         <v>65360</v>
       </c>
-      <c r="BE8">
+      <c r="BE8" t="n">
         <v>65491</v>
       </c>
-      <c r="BF8">
+      <c r="BF8" t="n">
         <v>65473</v>
       </c>
-      <c r="BG8">
+      <c r="BG8" t="n">
         <v>65825</v>
       </c>
-      <c r="BH8">
+      <c r="BH8" t="n">
         <v>66875</v>
       </c>
-      <c r="BI8">
+      <c r="BI8" t="n">
         <v>69506</v>
       </c>
-      <c r="BJ8">
+      <c r="BJ8" t="n">
         <v>71366</v>
       </c>
-      <c r="BK8">
+      <c r="BK8" t="n">
         <v>71955</v>
       </c>
-      <c r="BL8">
+      <c r="BL8" t="n">
         <v>70229</v>
       </c>
-      <c r="BM8">
+      <c r="BM8" t="n">
         <v>65568</v>
       </c>
-      <c r="BN8">
+      <c r="BN8" t="n">
         <v>65396</v>
       </c>
-      <c r="BO8">
+      <c r="BO8" t="n">
         <v>66829</v>
       </c>
-      <c r="BP8">
+      <c r="BP8" t="n">
         <v>67814</v>
       </c>
-      <c r="BQ8">
+      <c r="BQ8" t="n">
         <v>73796</v>
       </c>
-      <c r="BR8">
+      <c r="BR8" t="n">
         <v>74041</v>
       </c>
-      <c r="BS8">
+      <c r="BS8" t="n">
         <v>68201</v>
       </c>
-      <c r="BT8">
+      <c r="BT8" t="n">
         <v>75728</v>
       </c>
-      <c r="BU8">
+      <c r="BU8" t="n">
         <v>81027</v>
       </c>
-      <c r="BV8">
+      <c r="BV8" t="n">
         <v>83769</v>
       </c>
-      <c r="BW8">
+      <c r="BW8" t="n">
         <v>85534</v>
       </c>
-      <c r="BX8">
+      <c r="BX8" t="n">
         <v>87567</v>
       </c>
-      <c r="BY8">
+      <c r="BY8" t="n">
         <v>79826</v>
       </c>
-      <c r="BZ8">
+      <c r="BZ8" t="n">
         <v>90581</v>
       </c>
-      <c r="CA8">
+      <c r="CA8" t="n">
         <v>95077</v>
       </c>
-      <c r="CB8">
+      <c r="CB8" t="n">
         <v>96078</v>
       </c>
-      <c r="CC8">
+      <c r="CC8" t="n">
         <v>101832</v>
       </c>
-      <c r="CD8">
+      <c r="CD8" t="n">
         <v>101581</v>
       </c>
-      <c r="CE8">
+      <c r="CE8" t="n">
         <v>104333</v>
       </c>
-      <c r="CF8">
+      <c r="CF8" t="n">
         <v>108533</v>
       </c>
-      <c r="CG8">
+      <c r="CG8" t="n">
         <v>107220</v>
       </c>
-      <c r="CH8">
+      <c r="CH8" t="n">
         <v>102652</v>
       </c>
-      <c r="CI8">
+      <c r="CI8" t="n">
         <v>102701</v>
       </c>
-      <c r="CJ8">
+      <c r="CJ8" t="n">
         <v>109131</v>
       </c>
-      <c r="CK8">
+      <c r="CK8" t="n">
         <v>117780</v>
       </c>
-      <c r="CL8">
+      <c r="CL8" t="n">
         <v>122487</v>
       </c>
-      <c r="CM8">
+      <c r="CM8" t="n">
         <v>126131</v>
       </c>
-      <c r="CN8">
+      <c r="CN8" t="n">
         <v>124426</v>
       </c>
-      <c r="CO8">
+      <c r="CO8" t="n">
         <v>124684</v>
       </c>
-      <c r="CP8">
+      <c r="CP8" t="n">
         <v>134874</v>
       </c>
-      <c r="CQ8">
+      <c r="CQ8" t="n">
         <v>136633</v>
       </c>
-      <c r="CR8">
+      <c r="CR8" t="n">
         <v>139286</v>
       </c>
-      <c r="CS8">
+      <c r="CS8" t="n">
         <v>132395</v>
       </c>
-      <c r="CT8">
+      <c r="CT8" t="n">
         <v>143338</v>
       </c>
-      <c r="CU8">
+      <c r="CU8" t="n">
         <v>150596</v>
       </c>
-      <c r="CV8">
+      <c r="CV8" t="n">
         <v>153991</v>
       </c>
-      <c r="CW8">
+      <c r="CW8" t="n">
         <v>152841</v>
       </c>
-      <c r="CX8">
+      <c r="CX8" t="n">
         <v>161784</v>
       </c>
-      <c r="CY8">
+      <c r="CY8" t="n">
         <v>167063</v>
       </c>
-      <c r="CZ8">
+      <c r="CZ8" t="n">
         <v>161629</v>
       </c>
-      <c r="DA8">
+      <c r="DA8" t="n">
         <v>156146</v>
       </c>
-      <c r="DB8">
+      <c r="DB8" t="n">
         <v>173159</v>
       </c>
-      <c r="DC8">
+      <c r="DC8" t="n">
         <v>178796</v>
       </c>
-      <c r="DD8">
+      <c r="DD8" t="n">
         <v>178858</v>
       </c>
-      <c r="DE8">
+      <c r="DE8" t="n">
         <v>165673</v>
       </c>
-      <c r="DF8">
+      <c r="DF8" t="n">
         <v>132314</v>
       </c>
-      <c r="DG8">
+      <c r="DG8" t="n">
         <v>84561</v>
       </c>
-      <c r="DH8">
+      <c r="DH8" t="n">
         <v>109202</v>
       </c>
-      <c r="DI8">
+      <c r="DI8" t="n">
         <v>106398</v>
       </c>
-      <c r="DJ8">
+      <c r="DJ8" t="n">
         <v>84448</v>
       </c>
-      <c r="DK8">
+      <c r="DK8" t="n">
         <v>98770</v>
       </c>
-      <c r="DL8">
+      <c r="DL8" t="n">
         <v>89493</v>
       </c>
-      <c r="DM8">
+      <c r="DM8" t="n">
         <v>99880</v>
       </c>
-      <c r="DN8">
+      <c r="DN8" t="n">
         <v>113906</v>
       </c>
     </row>
-    <row r="9" spans="1:118">
-      <c r="A9" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="B9">
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>Financial and insurance activities</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
         <v>106688</v>
       </c>
-      <c r="C9">
+      <c r="C9" t="n">
         <v>104443</v>
       </c>
-      <c r="D9">
+      <c r="D9" t="n">
         <v>114187</v>
       </c>
-      <c r="E9">
+      <c r="E9" t="n">
         <v>113755</v>
       </c>
-      <c r="F9">
+      <c r="F9" t="n">
         <v>124288</v>
       </c>
-      <c r="G9">
+      <c r="G9" t="n">
         <v>127863</v>
       </c>
-      <c r="H9">
+      <c r="H9" t="n">
         <v>121554</v>
       </c>
-      <c r="I9">
+      <c r="I9" t="n">
         <v>126194</v>
       </c>
-      <c r="J9">
+      <c r="J9" t="n">
         <v>123479</v>
       </c>
-      <c r="K9">
+      <c r="K9" t="n">
         <v>125455</v>
       </c>
-      <c r="L9">
+      <c r="L9" t="n">
         <v>118463</v>
       </c>
-      <c r="M9">
+      <c r="M9" t="n">
         <v>123568</v>
       </c>
-      <c r="N9">
+      <c r="N9" t="n">
         <v>124608</v>
       </c>
-      <c r="O9">
+      <c r="O9" t="n">
         <v>126336</v>
       </c>
-      <c r="P9">
+      <c r="P9" t="n">
         <v>130858</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" t="n">
         <v>122566</v>
       </c>
-      <c r="R9">
+      <c r="R9" t="n">
         <v>102319</v>
       </c>
-      <c r="S9">
+      <c r="S9" t="n">
         <v>106861</v>
       </c>
-      <c r="T9">
+      <c r="T9" t="n">
         <v>87116</v>
       </c>
-      <c r="U9">
+      <c r="U9" t="n">
         <v>94160</v>
       </c>
-      <c r="V9">
+      <c r="V9" t="n">
         <v>74896</v>
       </c>
-      <c r="W9">
+      <c r="W9" t="n">
         <v>64029</v>
       </c>
-      <c r="X9">
+      <c r="X9" t="n">
         <v>61574</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" t="n">
         <v>54875</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" t="n">
         <v>49997</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" t="n">
         <v>50126</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" t="n">
         <v>51812</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" t="n">
         <v>54623</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" t="n">
         <v>65610</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" t="n">
         <v>53767</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" t="n">
         <v>53698</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" t="n">
         <v>54428</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" t="n">
         <v>62595</v>
       </c>
-      <c r="AI9">
+      <c r="AI9" t="n">
         <v>62939</v>
       </c>
-      <c r="AJ9">
+      <c r="AJ9" t="n">
         <v>55469</v>
       </c>
-      <c r="AK9">
+      <c r="AK9" t="n">
         <v>64849</v>
       </c>
-      <c r="AL9">
+      <c r="AL9" t="n">
         <v>67499</v>
       </c>
-      <c r="AM9">
+      <c r="AM9" t="n">
         <v>69282</v>
       </c>
-      <c r="AN9">
+      <c r="AN9" t="n">
         <v>69540</v>
       </c>
-      <c r="AO9">
+      <c r="AO9" t="n">
         <v>70185</v>
       </c>
-      <c r="AP9">
+      <c r="AP9" t="n">
         <v>72673</v>
       </c>
-      <c r="AQ9">
+      <c r="AQ9" t="n">
         <v>74181</v>
       </c>
-      <c r="AR9">
+      <c r="AR9" t="n">
         <v>82369</v>
       </c>
-      <c r="AS9">
+      <c r="AS9" t="n">
         <v>78690</v>
       </c>
-      <c r="AT9">
+      <c r="AT9" t="n">
         <v>77981</v>
       </c>
-      <c r="AU9">
+      <c r="AU9" t="n">
         <v>82888</v>
       </c>
-      <c r="AV9">
+      <c r="AV9" t="n">
         <v>81297</v>
       </c>
-      <c r="AW9">
+      <c r="AW9" t="n">
         <v>85985</v>
       </c>
-      <c r="AX9">
+      <c r="AX9" t="n">
         <v>85945</v>
       </c>
-      <c r="AY9">
+      <c r="AY9" t="n">
         <v>86487</v>
       </c>
-      <c r="AZ9">
+      <c r="AZ9" t="n">
         <v>86967</v>
       </c>
-      <c r="BA9">
+      <c r="BA9" t="n">
         <v>86656</v>
       </c>
-      <c r="BB9">
+      <c r="BB9" t="n">
         <v>87463</v>
       </c>
-      <c r="BC9">
+      <c r="BC9" t="n">
         <v>85616</v>
       </c>
-      <c r="BD9">
+      <c r="BD9" t="n">
         <v>84931</v>
       </c>
-      <c r="BE9">
+      <c r="BE9" t="n">
         <v>86515</v>
       </c>
-      <c r="BF9">
+      <c r="BF9" t="n">
         <v>86166</v>
       </c>
-      <c r="BG9">
+      <c r="BG9" t="n">
         <v>88222</v>
       </c>
-      <c r="BH9">
+      <c r="BH9" t="n">
         <v>90737</v>
       </c>
-      <c r="BI9">
+      <c r="BI9" t="n">
         <v>90139</v>
       </c>
-      <c r="BJ9">
+      <c r="BJ9" t="n">
         <v>87405</v>
       </c>
-      <c r="BK9">
+      <c r="BK9" t="n">
         <v>86428</v>
       </c>
-      <c r="BL9">
+      <c r="BL9" t="n">
         <v>88600</v>
       </c>
-      <c r="BM9">
+      <c r="BM9" t="n">
         <v>90483</v>
       </c>
-      <c r="BN9">
+      <c r="BN9" t="n">
         <v>93940</v>
       </c>
-      <c r="BO9">
+      <c r="BO9" t="n">
         <v>98874</v>
       </c>
-      <c r="BP9">
+      <c r="BP9" t="n">
         <v>99501</v>
       </c>
-      <c r="BQ9">
+      <c r="BQ9" t="n">
         <v>100154</v>
       </c>
-      <c r="BR9">
+      <c r="BR9" t="n">
         <v>103305</v>
       </c>
-      <c r="BS9">
+      <c r="BS9" t="n">
         <v>101914</v>
       </c>
-      <c r="BT9">
+      <c r="BT9" t="n">
         <v>99871</v>
       </c>
-      <c r="BU9">
+      <c r="BU9" t="n">
         <v>102811</v>
       </c>
-      <c r="BV9">
+      <c r="BV9" t="n">
         <v>104691</v>
       </c>
-      <c r="BW9">
+      <c r="BW9" t="n">
         <v>105644</v>
       </c>
-      <c r="BX9">
+      <c r="BX9" t="n">
         <v>110439</v>
       </c>
-      <c r="BY9">
+      <c r="BY9" t="n">
         <v>111833</v>
       </c>
-      <c r="BZ9">
+      <c r="BZ9" t="n">
         <v>116690</v>
       </c>
-      <c r="CA9">
+      <c r="CA9" t="n">
         <v>123777</v>
       </c>
-      <c r="CB9">
+      <c r="CB9" t="n">
         <v>127460</v>
       </c>
-      <c r="CC9">
+      <c r="CC9" t="n">
         <v>130874</v>
       </c>
-      <c r="CD9">
+      <c r="CD9" t="n">
         <v>136406</v>
       </c>
-      <c r="CE9">
+      <c r="CE9" t="n">
         <v>138584</v>
       </c>
-      <c r="CF9">
+      <c r="CF9" t="n">
         <v>140849</v>
       </c>
-      <c r="CG9">
+      <c r="CG9" t="n">
         <v>144363</v>
       </c>
-      <c r="CH9">
+      <c r="CH9" t="n">
         <v>145599</v>
       </c>
-      <c r="CI9">
+      <c r="CI9" t="n">
         <v>148597</v>
       </c>
-      <c r="CJ9">
+      <c r="CJ9" t="n">
         <v>153069</v>
       </c>
-      <c r="CK9">
+      <c r="CK9" t="n">
         <v>154643</v>
       </c>
-      <c r="CL9">
+      <c r="CL9" t="n">
         <v>161115</v>
       </c>
-      <c r="CM9">
+      <c r="CM9" t="n">
         <v>161015</v>
       </c>
-      <c r="CN9">
+      <c r="CN9" t="n">
         <v>164001</v>
       </c>
-      <c r="CO9">
+      <c r="CO9" t="n">
         <v>166217</v>
       </c>
-      <c r="CP9">
+      <c r="CP9" t="n">
         <v>170285</v>
       </c>
-      <c r="CQ9">
+      <c r="CQ9" t="n">
         <v>172592</v>
       </c>
-      <c r="CR9">
+      <c r="CR9" t="n">
         <v>175128</v>
       </c>
-      <c r="CS9">
+      <c r="CS9" t="n">
         <v>180525</v>
       </c>
-      <c r="CT9">
+      <c r="CT9" t="n">
         <v>181339</v>
       </c>
-      <c r="CU9">
+      <c r="CU9" t="n">
         <v>185700</v>
       </c>
-      <c r="CV9">
+      <c r="CV9" t="n">
         <v>187353</v>
       </c>
-      <c r="CW9">
+      <c r="CW9" t="n">
         <v>190704</v>
       </c>
-      <c r="CX9">
+      <c r="CX9" t="n">
         <v>190081</v>
       </c>
-      <c r="CY9">
+      <c r="CY9" t="n">
         <v>194592</v>
       </c>
-      <c r="CZ9">
+      <c r="CZ9" t="n">
         <v>193809</v>
       </c>
-      <c r="DA9">
+      <c r="DA9" t="n">
         <v>194154</v>
       </c>
-      <c r="DB9">
+      <c r="DB9" t="n">
         <v>192512</v>
       </c>
-      <c r="DC9">
+      <c r="DC9" t="n">
         <v>196564</v>
       </c>
-      <c r="DD9">
+      <c r="DD9" t="n">
         <v>199546</v>
       </c>
-      <c r="DE9">
+      <c r="DE9" t="n">
         <v>198814</v>
       </c>
-      <c r="DF9">
+      <c r="DF9" t="n">
         <v>205323</v>
       </c>
-      <c r="DG9">
+      <c r="DG9" t="n">
         <v>204268</v>
       </c>
-      <c r="DH9">
+      <c r="DH9" t="n">
         <v>206891</v>
       </c>
-      <c r="DI9">
+      <c r="DI9" t="n">
         <v>211743</v>
       </c>
-      <c r="DJ9">
+      <c r="DJ9" t="n">
         <v>217855</v>
       </c>
-      <c r="DK9">
+      <c r="DK9" t="n">
         <v>216447</v>
       </c>
-      <c r="DL9">
+      <c r="DL9" t="n">
         <v>219531</v>
       </c>
-      <c r="DM9">
+      <c r="DM9" t="n">
         <v>221337</v>
       </c>
-      <c r="DN9">
+      <c r="DN9" t="n">
         <v>220658</v>
       </c>
     </row>
-    <row r="10" spans="1:118">
-      <c r="A10" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="B10">
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Public Administration and Defence; Compulsory Social Security</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
         <v>43138</v>
       </c>
-      <c r="C10">
+      <c r="C10" t="n">
         <v>44521</v>
       </c>
-      <c r="D10">
+      <c r="D10" t="n">
         <v>45910</v>
       </c>
-      <c r="E10">
+      <c r="E10" t="n">
         <v>51590</v>
       </c>
-      <c r="F10">
+      <c r="F10" t="n">
         <v>52340</v>
       </c>
-      <c r="G10">
+      <c r="G10" t="n">
         <v>51242</v>
       </c>
-      <c r="H10">
+      <c r="H10" t="n">
         <v>48028</v>
       </c>
-      <c r="I10">
+      <c r="I10" t="n">
         <v>41767</v>
       </c>
-      <c r="J10">
+      <c r="J10" t="n">
         <v>56996</v>
       </c>
-      <c r="K10">
+      <c r="K10" t="n">
         <v>55472</v>
       </c>
-      <c r="L10">
+      <c r="L10" t="n">
         <v>57832</v>
       </c>
-      <c r="M10">
+      <c r="M10" t="n">
         <v>58213</v>
       </c>
-      <c r="N10">
+      <c r="N10" t="n">
         <v>58778</v>
       </c>
-      <c r="O10">
+      <c r="O10" t="n">
         <v>59843</v>
       </c>
-      <c r="P10">
+      <c r="P10" t="n">
         <v>62157</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" t="n">
         <v>63177</v>
       </c>
-      <c r="R10">
+      <c r="R10" t="n">
         <v>63942</v>
       </c>
-      <c r="S10">
+      <c r="S10" t="n">
         <v>65409</v>
       </c>
-      <c r="T10">
+      <c r="T10" t="n">
         <v>66320</v>
       </c>
-      <c r="U10">
+      <c r="U10" t="n">
         <v>67615</v>
       </c>
-      <c r="V10">
+      <c r="V10" t="n">
         <v>69254</v>
       </c>
-      <c r="W10">
+      <c r="W10" t="n">
         <v>70407</v>
       </c>
-      <c r="X10">
+      <c r="X10" t="n">
         <v>72940</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" t="n">
         <v>75063</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" t="n">
         <v>74373</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" t="n">
         <v>77584</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" t="n">
         <v>76660</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" t="n">
         <v>76624</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" t="n">
         <v>76509</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" t="n">
         <v>77499</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" t="n">
         <v>79041</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" t="n">
         <v>80955</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" t="n">
         <v>78586</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" t="n">
         <v>78757</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" t="n">
         <v>82479</v>
       </c>
-      <c r="AK10">
+      <c r="AK10" t="n">
         <v>84551</v>
       </c>
-      <c r="AL10">
+      <c r="AL10" t="n">
         <v>86132</v>
       </c>
-      <c r="AM10">
+      <c r="AM10" t="n">
         <v>85995</v>
       </c>
-      <c r="AN10">
+      <c r="AN10" t="n">
         <v>83883</v>
       </c>
-      <c r="AO10">
+      <c r="AO10" t="n">
         <v>84802</v>
       </c>
-      <c r="AP10">
+      <c r="AP10" t="n">
         <v>86213</v>
       </c>
-      <c r="AQ10">
+      <c r="AQ10" t="n">
         <v>87551</v>
       </c>
-      <c r="AR10">
+      <c r="AR10" t="n">
         <v>88631</v>
       </c>
-      <c r="AS10">
+      <c r="AS10" t="n">
         <v>87705</v>
       </c>
-      <c r="AT10">
+      <c r="AT10" t="n">
         <v>87084</v>
       </c>
-      <c r="AU10">
+      <c r="AU10" t="n">
         <v>87879</v>
       </c>
-      <c r="AV10">
+      <c r="AV10" t="n">
         <v>87956</v>
       </c>
-      <c r="AW10">
+      <c r="AW10" t="n">
         <v>88043</v>
       </c>
-      <c r="AX10">
+      <c r="AX10" t="n">
         <v>91946</v>
       </c>
-      <c r="AY10">
+      <c r="AY10" t="n">
         <v>92151</v>
       </c>
-      <c r="AZ10">
+      <c r="AZ10" t="n">
         <v>92125</v>
       </c>
-      <c r="BA10">
+      <c r="BA10" t="n">
         <v>92380</v>
       </c>
-      <c r="BB10">
+      <c r="BB10" t="n">
         <v>91926</v>
       </c>
-      <c r="BC10">
+      <c r="BC10" t="n">
         <v>94656</v>
       </c>
-      <c r="BD10">
+      <c r="BD10" t="n">
         <v>95081</v>
       </c>
-      <c r="BE10">
+      <c r="BE10" t="n">
         <v>97771</v>
       </c>
-      <c r="BF10">
+      <c r="BF10" t="n">
         <v>101885</v>
       </c>
-      <c r="BG10">
+      <c r="BG10" t="n">
         <v>101104</v>
       </c>
-      <c r="BH10">
+      <c r="BH10" t="n">
         <v>103589</v>
       </c>
-      <c r="BI10">
+      <c r="BI10" t="n">
         <v>101432</v>
       </c>
-      <c r="BJ10">
+      <c r="BJ10" t="n">
         <v>102203</v>
       </c>
-      <c r="BK10">
+      <c r="BK10" t="n">
         <v>105718</v>
       </c>
-      <c r="BL10">
+      <c r="BL10" t="n">
         <v>104237</v>
       </c>
-      <c r="BM10">
+      <c r="BM10" t="n">
         <v>109940</v>
       </c>
-      <c r="BN10">
+      <c r="BN10" t="n">
         <v>106763</v>
       </c>
-      <c r="BO10">
+      <c r="BO10" t="n">
         <v>108836</v>
       </c>
-      <c r="BP10">
+      <c r="BP10" t="n">
         <v>110470</v>
       </c>
-      <c r="BQ10">
+      <c r="BQ10" t="n">
         <v>112086</v>
       </c>
-      <c r="BR10">
+      <c r="BR10" t="n">
         <v>111909</v>
       </c>
-      <c r="BS10">
+      <c r="BS10" t="n">
         <v>111714</v>
       </c>
-      <c r="BT10">
+      <c r="BT10" t="n">
         <v>114343</v>
       </c>
-      <c r="BU10">
+      <c r="BU10" t="n">
         <v>117989</v>
       </c>
-      <c r="BV10">
+      <c r="BV10" t="n">
         <v>119846</v>
       </c>
-      <c r="BW10">
+      <c r="BW10" t="n">
         <v>118248</v>
       </c>
-      <c r="BX10">
+      <c r="BX10" t="n">
         <v>120036</v>
       </c>
-      <c r="BY10">
+      <c r="BY10" t="n">
         <v>115035</v>
       </c>
-      <c r="BZ10">
+      <c r="BZ10" t="n">
         <v>124534</v>
       </c>
-      <c r="CA10">
+      <c r="CA10" t="n">
         <v>123683</v>
       </c>
-      <c r="CB10">
+      <c r="CB10" t="n">
         <v>121264</v>
       </c>
-      <c r="CC10">
+      <c r="CC10" t="n">
         <v>123332</v>
       </c>
-      <c r="CD10">
+      <c r="CD10" t="n">
         <v>121950</v>
       </c>
-      <c r="CE10">
+      <c r="CE10" t="n">
         <v>125479</v>
       </c>
-      <c r="CF10">
+      <c r="CF10" t="n">
         <v>126305</v>
       </c>
-      <c r="CG10">
+      <c r="CG10" t="n">
         <v>121480</v>
       </c>
-      <c r="CH10">
+      <c r="CH10" t="n">
         <v>123526</v>
       </c>
-      <c r="CI10">
+      <c r="CI10" t="n">
         <v>125197</v>
       </c>
-      <c r="CJ10">
+      <c r="CJ10" t="n">
         <v>125439</v>
       </c>
-      <c r="CK10">
+      <c r="CK10" t="n">
         <v>127697</v>
       </c>
-      <c r="CL10">
+      <c r="CL10" t="n">
         <v>123137</v>
       </c>
-      <c r="CM10">
+      <c r="CM10" t="n">
         <v>127373</v>
       </c>
-      <c r="CN10">
+      <c r="CN10" t="n">
         <v>129375</v>
       </c>
-      <c r="CO10">
+      <c r="CO10" t="n">
         <v>127551</v>
       </c>
-      <c r="CP10">
+      <c r="CP10" t="n">
         <v>127306</v>
       </c>
-      <c r="CQ10">
+      <c r="CQ10" t="n">
         <v>126339</v>
       </c>
-      <c r="CR10">
+      <c r="CR10" t="n">
         <v>127234</v>
       </c>
-      <c r="CS10">
+      <c r="CS10" t="n">
         <v>128847</v>
       </c>
-      <c r="CT10">
+      <c r="CT10" t="n">
         <v>128429</v>
       </c>
-      <c r="CU10">
+      <c r="CU10" t="n">
         <v>128645</v>
       </c>
-      <c r="CV10">
+      <c r="CV10" t="n">
         <v>127798</v>
       </c>
-      <c r="CW10">
+      <c r="CW10" t="n">
         <v>128961</v>
       </c>
-      <c r="CX10">
+      <c r="CX10" t="n">
         <v>130225</v>
       </c>
-      <c r="CY10">
+      <c r="CY10" t="n">
         <v>130256</v>
       </c>
-      <c r="CZ10">
+      <c r="CZ10" t="n">
         <v>129661</v>
       </c>
-      <c r="DA10">
+      <c r="DA10" t="n">
         <v>131454</v>
       </c>
-      <c r="DB10">
+      <c r="DB10" t="n">
         <v>131668</v>
       </c>
-      <c r="DC10">
+      <c r="DC10" t="n">
         <v>132108</v>
       </c>
-      <c r="DD10">
+      <c r="DD10" t="n">
         <v>132696</v>
       </c>
-      <c r="DE10">
+      <c r="DE10" t="n">
         <v>132406</v>
       </c>
-      <c r="DF10">
+      <c r="DF10" t="n">
         <v>133612</v>
       </c>
-      <c r="DG10">
+      <c r="DG10" t="n">
         <v>133978</v>
       </c>
-      <c r="DH10">
+      <c r="DH10" t="n">
         <v>134567</v>
       </c>
-      <c r="DI10">
+      <c r="DI10" t="n">
         <v>135298</v>
       </c>
-      <c r="DJ10">
+      <c r="DJ10" t="n">
         <v>135492</v>
       </c>
-      <c r="DK10">
+      <c r="DK10" t="n">
         <v>135307</v>
       </c>
-      <c r="DL10">
+      <c r="DL10" t="n">
         <v>134757</v>
       </c>
-      <c r="DM10">
+      <c r="DM10" t="n">
         <v>135365</v>
       </c>
-      <c r="DN10">
+      <c r="DN10" t="n">
         <v>130573</v>
       </c>
     </row>
-    <row r="11" spans="1:118">
-      <c r="A11" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="B11">
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>Education</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
         <v>38644</v>
       </c>
-      <c r="C11">
+      <c r="C11" t="n">
         <v>40244</v>
       </c>
-      <c r="D11">
+      <c r="D11" t="n">
         <v>41294</v>
       </c>
-      <c r="E11">
+      <c r="E11" t="n">
         <v>42683</v>
       </c>
-      <c r="F11">
+      <c r="F11" t="n">
         <v>42173</v>
       </c>
-      <c r="G11">
+      <c r="G11" t="n">
         <v>42800</v>
       </c>
-      <c r="H11">
+      <c r="H11" t="n">
         <v>44166</v>
       </c>
-      <c r="I11">
+      <c r="I11" t="n">
         <v>38758</v>
       </c>
-      <c r="J11">
+      <c r="J11" t="n">
         <v>46013</v>
       </c>
-      <c r="K11">
+      <c r="K11" t="n">
         <v>42310</v>
       </c>
-      <c r="L11">
+      <c r="L11" t="n">
         <v>43178</v>
       </c>
-      <c r="M11">
+      <c r="M11" t="n">
         <v>43191</v>
       </c>
-      <c r="N11">
+      <c r="N11" t="n">
         <v>44498</v>
       </c>
-      <c r="O11">
+      <c r="O11" t="n">
         <v>45297</v>
       </c>
-      <c r="P11">
+      <c r="P11" t="n">
         <v>45705</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" t="n">
         <v>46308</v>
       </c>
-      <c r="R11">
+      <c r="R11" t="n">
         <v>46480</v>
       </c>
-      <c r="S11">
+      <c r="S11" t="n">
         <v>48370</v>
       </c>
-      <c r="T11">
+      <c r="T11" t="n">
         <v>48724</v>
       </c>
-      <c r="U11">
+      <c r="U11" t="n">
         <v>49249</v>
       </c>
-      <c r="V11">
+      <c r="V11" t="n">
         <v>50941</v>
       </c>
-      <c r="W11">
+      <c r="W11" t="n">
         <v>50536</v>
       </c>
-      <c r="X11">
+      <c r="X11" t="n">
         <v>51746</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" t="n">
         <v>56404</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" t="n">
         <v>50981</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" t="n">
         <v>52991</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" t="n">
         <v>53012</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" t="n">
         <v>52271</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" t="n">
         <v>52735</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" t="n">
         <v>52396</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" t="n">
         <v>52707</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" t="n">
         <v>53613</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" t="n">
         <v>52170</v>
       </c>
-      <c r="AI11">
+      <c r="AI11" t="n">
         <v>52687</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ11" t="n">
         <v>54036</v>
       </c>
-      <c r="AK11">
+      <c r="AK11" t="n">
         <v>54676</v>
       </c>
-      <c r="AL11">
+      <c r="AL11" t="n">
         <v>54253</v>
       </c>
-      <c r="AM11">
+      <c r="AM11" t="n">
         <v>54303</v>
       </c>
-      <c r="AN11">
+      <c r="AN11" t="n">
         <v>53401</v>
       </c>
-      <c r="AO11">
+      <c r="AO11" t="n">
         <v>52973</v>
       </c>
-      <c r="AP11">
+      <c r="AP11" t="n">
         <v>54248</v>
       </c>
-      <c r="AQ11">
+      <c r="AQ11" t="n">
         <v>54817</v>
       </c>
-      <c r="AR11">
+      <c r="AR11" t="n">
         <v>56072</v>
       </c>
-      <c r="AS11">
+      <c r="AS11" t="n">
         <v>57809</v>
       </c>
-      <c r="AT11">
+      <c r="AT11" t="n">
         <v>57914</v>
       </c>
-      <c r="AU11">
+      <c r="AU11" t="n">
         <v>59195</v>
       </c>
-      <c r="AV11">
+      <c r="AV11" t="n">
         <v>57800</v>
       </c>
-      <c r="AW11">
+      <c r="AW11" t="n">
         <v>59635</v>
       </c>
-      <c r="AX11">
+      <c r="AX11" t="n">
         <v>61733</v>
       </c>
-      <c r="AY11">
+      <c r="AY11" t="n">
         <v>61536</v>
       </c>
-      <c r="AZ11">
+      <c r="AZ11" t="n">
         <v>60869</v>
       </c>
-      <c r="BA11">
+      <c r="BA11" t="n">
         <v>60798</v>
       </c>
-      <c r="BB11">
+      <c r="BB11" t="n">
         <v>61579</v>
       </c>
-      <c r="BC11">
+      <c r="BC11" t="n">
         <v>63999</v>
       </c>
-      <c r="BD11">
+      <c r="BD11" t="n">
         <v>63616</v>
       </c>
-      <c r="BE11">
+      <c r="BE11" t="n">
         <v>63531</v>
       </c>
-      <c r="BF11">
+      <c r="BF11" t="n">
         <v>66254</v>
       </c>
-      <c r="BG11">
+      <c r="BG11" t="n">
         <v>65454</v>
       </c>
-      <c r="BH11">
+      <c r="BH11" t="n">
         <v>67514</v>
       </c>
-      <c r="BI11">
+      <c r="BI11" t="n">
         <v>64645</v>
       </c>
-      <c r="BJ11">
+      <c r="BJ11" t="n">
         <v>63871</v>
       </c>
-      <c r="BK11">
+      <c r="BK11" t="n">
         <v>66274</v>
       </c>
-      <c r="BL11">
+      <c r="BL11" t="n">
         <v>66012</v>
       </c>
-      <c r="BM11">
+      <c r="BM11" t="n">
         <v>69404</v>
       </c>
-      <c r="BN11">
+      <c r="BN11" t="n">
         <v>66028</v>
       </c>
-      <c r="BO11">
+      <c r="BO11" t="n">
         <v>66992</v>
       </c>
-      <c r="BP11">
+      <c r="BP11" t="n">
         <v>69511</v>
       </c>
-      <c r="BQ11">
+      <c r="BQ11" t="n">
         <v>71163</v>
       </c>
-      <c r="BR11">
+      <c r="BR11" t="n">
         <v>71516</v>
       </c>
-      <c r="BS11">
+      <c r="BS11" t="n">
         <v>71019</v>
       </c>
-      <c r="BT11">
+      <c r="BT11" t="n">
         <v>72151</v>
       </c>
-      <c r="BU11">
+      <c r="BU11" t="n">
         <v>73933</v>
       </c>
-      <c r="BV11">
+      <c r="BV11" t="n">
         <v>74406</v>
       </c>
-      <c r="BW11">
+      <c r="BW11" t="n">
         <v>73481</v>
       </c>
-      <c r="BX11">
+      <c r="BX11" t="n">
         <v>74481</v>
       </c>
-      <c r="BY11">
+      <c r="BY11" t="n">
         <v>74102</v>
       </c>
-      <c r="BZ11">
+      <c r="BZ11" t="n">
         <v>77683</v>
       </c>
-      <c r="CA11">
+      <c r="CA11" t="n">
         <v>77234</v>
       </c>
-      <c r="CB11">
+      <c r="CB11" t="n">
         <v>75904</v>
       </c>
-      <c r="CC11">
+      <c r="CC11" t="n">
         <v>80325</v>
       </c>
-      <c r="CD11">
+      <c r="CD11" t="n">
         <v>77258</v>
       </c>
-      <c r="CE11">
+      <c r="CE11" t="n">
         <v>80168</v>
       </c>
-      <c r="CF11">
+      <c r="CF11" t="n">
         <v>80953</v>
       </c>
-      <c r="CG11">
+      <c r="CG11" t="n">
         <v>78214</v>
       </c>
-      <c r="CH11">
+      <c r="CH11" t="n">
         <v>80957</v>
       </c>
-      <c r="CI11">
+      <c r="CI11" t="n">
         <v>81121</v>
       </c>
-      <c r="CJ11">
+      <c r="CJ11" t="n">
         <v>80856</v>
       </c>
-      <c r="CK11">
+      <c r="CK11" t="n">
         <v>80758</v>
       </c>
-      <c r="CL11">
+      <c r="CL11" t="n">
         <v>79279</v>
       </c>
-      <c r="CM11">
+      <c r="CM11" t="n">
         <v>80572</v>
       </c>
-      <c r="CN11">
+      <c r="CN11" t="n">
         <v>82348</v>
       </c>
-      <c r="CO11">
+      <c r="CO11" t="n">
         <v>81974</v>
       </c>
-      <c r="CP11">
+      <c r="CP11" t="n">
         <v>81498</v>
       </c>
-      <c r="CQ11">
+      <c r="CQ11" t="n">
         <v>80335</v>
       </c>
-      <c r="CR11">
+      <c r="CR11" t="n">
         <v>80875</v>
       </c>
-      <c r="CS11">
+      <c r="CS11" t="n">
         <v>81010</v>
       </c>
-      <c r="CT11">
+      <c r="CT11" t="n">
         <v>80059</v>
       </c>
-      <c r="CU11">
+      <c r="CU11" t="n">
         <v>81043</v>
       </c>
-      <c r="CV11">
+      <c r="CV11" t="n">
         <v>81408</v>
       </c>
-      <c r="CW11">
+      <c r="CW11" t="n">
         <v>82575</v>
       </c>
-      <c r="CX11">
+      <c r="CX11" t="n">
         <v>82230</v>
       </c>
-      <c r="CY11">
+      <c r="CY11" t="n">
         <v>81595</v>
       </c>
-      <c r="CZ11">
+      <c r="CZ11" t="n">
         <v>81723</v>
       </c>
-      <c r="DA11">
+      <c r="DA11" t="n">
         <v>82861</v>
       </c>
-      <c r="DB11">
+      <c r="DB11" t="n">
         <v>83682</v>
       </c>
-      <c r="DC11">
+      <c r="DC11" t="n">
         <v>83721</v>
       </c>
-      <c r="DD11">
+      <c r="DD11" t="n">
         <v>82335</v>
       </c>
-      <c r="DE11">
+      <c r="DE11" t="n">
         <v>82618</v>
       </c>
-      <c r="DF11">
+      <c r="DF11" t="n">
         <v>84349</v>
       </c>
-      <c r="DG11">
+      <c r="DG11" t="n">
         <v>83812</v>
       </c>
-      <c r="DH11">
+      <c r="DH11" t="n">
         <v>84045</v>
       </c>
-      <c r="DI11">
+      <c r="DI11" t="n">
         <v>84310</v>
       </c>
-      <c r="DJ11">
+      <c r="DJ11" t="n">
         <v>84770</v>
       </c>
-      <c r="DK11">
+      <c r="DK11" t="n">
         <v>84240</v>
       </c>
-      <c r="DL11">
+      <c r="DL11" t="n">
         <v>84516</v>
       </c>
-      <c r="DM11">
+      <c r="DM11" t="n">
         <v>85046</v>
       </c>
-      <c r="DN11">
+      <c r="DN11" t="n">
         <v>85077</v>
       </c>
     </row>
-    <row r="12" spans="1:118">
-      <c r="A12" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="B12">
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Health and Social Work</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
         <v>18853</v>
       </c>
-      <c r="C12">
+      <c r="C12" t="n">
         <v>18439</v>
       </c>
-      <c r="D12">
+      <c r="D12" t="n">
         <v>18715</v>
       </c>
-      <c r="E12">
+      <c r="E12" t="n">
         <v>19988</v>
       </c>
-      <c r="F12">
+      <c r="F12" t="n">
         <v>19523</v>
       </c>
-      <c r="G12">
+      <c r="G12" t="n">
         <v>20124</v>
       </c>
-      <c r="H12">
+      <c r="H12" t="n">
         <v>20005</v>
       </c>
-      <c r="I12">
+      <c r="I12" t="n">
         <v>19388</v>
       </c>
-      <c r="J12">
+      <c r="J12" t="n">
         <v>21781</v>
       </c>
-      <c r="K12">
+      <c r="K12" t="n">
         <v>21128</v>
       </c>
-      <c r="L12">
+      <c r="L12" t="n">
         <v>20976</v>
       </c>
-      <c r="M12">
+      <c r="M12" t="n">
         <v>20445</v>
       </c>
-      <c r="N12">
+      <c r="N12" t="n">
         <v>22094</v>
       </c>
-      <c r="O12">
+      <c r="O12" t="n">
         <v>22898</v>
       </c>
-      <c r="P12">
+      <c r="P12" t="n">
         <v>23596</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" t="n">
         <v>23220</v>
       </c>
-      <c r="R12">
+      <c r="R12" t="n">
         <v>22502</v>
       </c>
-      <c r="S12">
+      <c r="S12" t="n">
         <v>23840</v>
       </c>
-      <c r="T12">
+      <c r="T12" t="n">
         <v>23423</v>
       </c>
-      <c r="U12">
+      <c r="U12" t="n">
         <v>23369</v>
       </c>
-      <c r="V12">
+      <c r="V12" t="n">
         <v>22990</v>
       </c>
-      <c r="W12">
+      <c r="W12" t="n">
         <v>23758</v>
       </c>
-      <c r="X12">
+      <c r="X12" t="n">
         <v>24288</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" t="n">
         <v>24982</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" t="n">
         <v>25085</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" t="n">
         <v>25144</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" t="n">
         <v>25815</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" t="n">
         <v>25628</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" t="n">
         <v>25825</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" t="n">
         <v>25223</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" t="n">
         <v>26619</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" t="n">
         <v>26925</v>
       </c>
-      <c r="AH12">
+      <c r="AH12" t="n">
         <v>27037</v>
       </c>
-      <c r="AI12">
+      <c r="AI12" t="n">
         <v>27245</v>
       </c>
-      <c r="AJ12">
+      <c r="AJ12" t="n">
         <v>28282</v>
       </c>
-      <c r="AK12">
+      <c r="AK12" t="n">
         <v>29050</v>
       </c>
-      <c r="AL12">
+      <c r="AL12" t="n">
         <v>29652</v>
       </c>
-      <c r="AM12">
+      <c r="AM12" t="n">
         <v>29765</v>
       </c>
-      <c r="AN12">
+      <c r="AN12" t="n">
         <v>29553</v>
       </c>
-      <c r="AO12">
+      <c r="AO12" t="n">
         <v>30076</v>
       </c>
-      <c r="AP12">
+      <c r="AP12" t="n">
         <v>29041</v>
       </c>
-      <c r="AQ12">
+      <c r="AQ12" t="n">
         <v>29295</v>
       </c>
-      <c r="AR12">
+      <c r="AR12" t="n">
         <v>29841</v>
       </c>
-      <c r="AS12">
+      <c r="AS12" t="n">
         <v>30501</v>
       </c>
-      <c r="AT12">
+      <c r="AT12" t="n">
         <v>30804</v>
       </c>
-      <c r="AU12">
+      <c r="AU12" t="n">
         <v>31232</v>
       </c>
-      <c r="AV12">
+      <c r="AV12" t="n">
         <v>31527</v>
       </c>
-      <c r="AW12">
+      <c r="AW12" t="n">
         <v>32470</v>
       </c>
-      <c r="AX12">
+      <c r="AX12" t="n">
         <v>32465</v>
       </c>
-      <c r="AY12">
+      <c r="AY12" t="n">
         <v>32215</v>
       </c>
-      <c r="AZ12">
+      <c r="AZ12" t="n">
         <v>32425</v>
       </c>
-      <c r="BA12">
+      <c r="BA12" t="n">
         <v>32716</v>
       </c>
-      <c r="BB12">
+      <c r="BB12" t="n">
         <v>33078</v>
       </c>
-      <c r="BC12">
+      <c r="BC12" t="n">
         <v>33271</v>
       </c>
-      <c r="BD12">
+      <c r="BD12" t="n">
         <v>33394</v>
       </c>
-      <c r="BE12">
+      <c r="BE12" t="n">
         <v>33556</v>
       </c>
-      <c r="BF12">
+      <c r="BF12" t="n">
         <v>34085</v>
       </c>
-      <c r="BG12">
+      <c r="BG12" t="n">
         <v>34584</v>
       </c>
-      <c r="BH12">
+      <c r="BH12" t="n">
         <v>35014</v>
       </c>
-      <c r="BI12">
+      <c r="BI12" t="n">
         <v>34910</v>
       </c>
-      <c r="BJ12">
+      <c r="BJ12" t="n">
         <v>34950</v>
       </c>
-      <c r="BK12">
+      <c r="BK12" t="n">
         <v>35704</v>
       </c>
-      <c r="BL12">
+      <c r="BL12" t="n">
         <v>35789</v>
       </c>
-      <c r="BM12">
+      <c r="BM12" t="n">
         <v>35551</v>
       </c>
-      <c r="BN12">
+      <c r="BN12" t="n">
         <v>38445</v>
       </c>
-      <c r="BO12">
+      <c r="BO12" t="n">
         <v>38707</v>
       </c>
-      <c r="BP12">
+      <c r="BP12" t="n">
         <v>40087</v>
       </c>
-      <c r="BQ12">
+      <c r="BQ12" t="n">
         <v>40923</v>
       </c>
-      <c r="BR12">
+      <c r="BR12" t="n">
         <v>41337</v>
       </c>
-      <c r="BS12">
+      <c r="BS12" t="n">
         <v>41169</v>
       </c>
-      <c r="BT12">
+      <c r="BT12" t="n">
         <v>41366</v>
       </c>
-      <c r="BU12">
+      <c r="BU12" t="n">
         <v>42700</v>
       </c>
-      <c r="BV12">
+      <c r="BV12" t="n">
         <v>43263</v>
       </c>
-      <c r="BW12">
+      <c r="BW12" t="n">
         <v>43187</v>
       </c>
-      <c r="BX12">
+      <c r="BX12" t="n">
         <v>44507</v>
       </c>
-      <c r="BY12">
+      <c r="BY12" t="n">
         <v>43561</v>
       </c>
-      <c r="BZ12">
+      <c r="BZ12" t="n">
         <v>45885</v>
       </c>
-      <c r="CA12">
+      <c r="CA12" t="n">
         <v>46352</v>
       </c>
-      <c r="CB12">
+      <c r="CB12" t="n">
         <v>45518</v>
       </c>
-      <c r="CC12">
+      <c r="CC12" t="n">
         <v>46903</v>
       </c>
-      <c r="CD12">
+      <c r="CD12" t="n">
         <v>46506</v>
       </c>
-      <c r="CE12">
+      <c r="CE12" t="n">
         <v>49123</v>
       </c>
-      <c r="CF12">
+      <c r="CF12" t="n">
         <v>49653</v>
       </c>
-      <c r="CG12">
+      <c r="CG12" t="n">
         <v>46357</v>
       </c>
-      <c r="CH12">
+      <c r="CH12" t="n">
         <v>50256</v>
       </c>
-      <c r="CI12">
+      <c r="CI12" t="n">
         <v>50526</v>
       </c>
-      <c r="CJ12">
+      <c r="CJ12" t="n">
         <v>50898</v>
       </c>
-      <c r="CK12">
+      <c r="CK12" t="n">
         <v>50082</v>
       </c>
-      <c r="CL12">
+      <c r="CL12" t="n">
         <v>50667</v>
       </c>
-      <c r="CM12">
+      <c r="CM12" t="n">
         <v>51151</v>
       </c>
-      <c r="CN12">
+      <c r="CN12" t="n">
         <v>52583</v>
       </c>
-      <c r="CO12">
+      <c r="CO12" t="n">
         <v>53864</v>
       </c>
-      <c r="CP12">
+      <c r="CP12" t="n">
         <v>52080</v>
       </c>
-      <c r="CQ12">
+      <c r="CQ12" t="n">
         <v>53069</v>
       </c>
-      <c r="CR12">
+      <c r="CR12" t="n">
         <v>54145</v>
       </c>
-      <c r="CS12">
+      <c r="CS12" t="n">
         <v>55340</v>
       </c>
-      <c r="CT12">
+      <c r="CT12" t="n">
         <v>55252</v>
       </c>
-      <c r="CU12">
+      <c r="CU12" t="n">
         <v>55850</v>
       </c>
-      <c r="CV12">
+      <c r="CV12" t="n">
         <v>56361</v>
       </c>
-      <c r="CW12">
+      <c r="CW12" t="n">
         <v>56082</v>
       </c>
-      <c r="CX12">
+      <c r="CX12" t="n">
         <v>58401</v>
       </c>
-      <c r="CY12">
+      <c r="CY12" t="n">
         <v>58984</v>
       </c>
-      <c r="CZ12">
+      <c r="CZ12" t="n">
         <v>58283</v>
       </c>
-      <c r="DA12">
+      <c r="DA12" t="n">
         <v>58544</v>
       </c>
-      <c r="DB12">
+      <c r="DB12" t="n">
         <v>59811</v>
       </c>
-      <c r="DC12">
+      <c r="DC12" t="n">
         <v>60323</v>
       </c>
-      <c r="DD12">
+      <c r="DD12" t="n">
         <v>60997</v>
       </c>
-      <c r="DE12">
+      <c r="DE12" t="n">
         <v>61570</v>
       </c>
-      <c r="DF12">
+      <c r="DF12" t="n">
         <v>61207</v>
       </c>
-      <c r="DG12">
+      <c r="DG12" t="n">
         <v>61436</v>
       </c>
-      <c r="DH12">
+      <c r="DH12" t="n">
         <v>62599</v>
       </c>
-      <c r="DI12">
+      <c r="DI12" t="n">
         <v>64977</v>
       </c>
-      <c r="DJ12">
+      <c r="DJ12" t="n">
         <v>62689</v>
       </c>
-      <c r="DK12">
+      <c r="DK12" t="n">
         <v>63565</v>
       </c>
-      <c r="DL12">
+      <c r="DL12" t="n">
         <v>65088</v>
       </c>
-      <c r="DM12">
+      <c r="DM12" t="n">
         <v>68429</v>
       </c>
-      <c r="DN12">
+      <c r="DN12" t="n">
         <v>64651</v>
       </c>
     </row>
-    <row r="13" spans="1:118">
-      <c r="A13" s="1" t="s">
-        <v>128</v>
-      </c>
-      <c r="B13">
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Private Household with Employed Persons</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
         <v>4776</v>
       </c>
-      <c r="C13">
+      <c r="C13" t="n">
         <v>4828</v>
       </c>
-      <c r="D13">
+      <c r="D13" t="n">
         <v>4911</v>
       </c>
-      <c r="E13">
+      <c r="E13" t="n">
         <v>5033</v>
       </c>
-      <c r="F13">
+      <c r="F13" t="n">
         <v>4692</v>
       </c>
-      <c r="G13">
+      <c r="G13" t="n">
         <v>4761</v>
       </c>
-      <c r="H13">
+      <c r="H13" t="n">
         <v>4836</v>
       </c>
-      <c r="I13">
+      <c r="I13" t="n">
         <v>4905</v>
       </c>
-      <c r="J13">
+      <c r="J13" t="n">
         <v>4872</v>
       </c>
-      <c r="K13">
+      <c r="K13" t="n">
         <v>4761</v>
       </c>
-      <c r="L13">
+      <c r="L13" t="n">
         <v>4634</v>
       </c>
-      <c r="M13">
+      <c r="M13" t="n">
         <v>4546</v>
       </c>
-      <c r="N13">
+      <c r="N13" t="n">
         <v>4563</v>
       </c>
-      <c r="O13">
+      <c r="O13" t="n">
         <v>4621</v>
       </c>
-      <c r="P13">
+      <c r="P13" t="n">
         <v>4655</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" t="n">
         <v>4705</v>
       </c>
-      <c r="R13">
+      <c r="R13" t="n">
         <v>4728</v>
       </c>
-      <c r="S13">
+      <c r="S13" t="n">
         <v>4707</v>
       </c>
-      <c r="T13">
+      <c r="T13" t="n">
         <v>4627</v>
       </c>
-      <c r="U13">
+      <c r="U13" t="n">
         <v>4606</v>
       </c>
-      <c r="V13">
+      <c r="V13" t="n">
         <v>4694</v>
       </c>
-      <c r="W13">
+      <c r="W13" t="n">
         <v>4764</v>
       </c>
-      <c r="X13">
+      <c r="X13" t="n">
         <v>4790</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" t="n">
         <v>4755</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" t="n">
         <v>4679</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" t="n">
         <v>4683</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" t="n">
         <v>4714</v>
       </c>
-      <c r="AC13">
+      <c r="AC13" t="n">
         <v>4755</v>
       </c>
-      <c r="AD13">
+      <c r="AD13" t="n">
         <v>4713</v>
       </c>
-      <c r="AE13">
+      <c r="AE13" t="n">
         <v>4731</v>
       </c>
-      <c r="AF13">
+      <c r="AF13" t="n">
         <v>4722</v>
       </c>
-      <c r="AG13">
+      <c r="AG13" t="n">
         <v>4700</v>
       </c>
-      <c r="AH13">
+      <c r="AH13" t="n">
         <v>4826</v>
       </c>
-      <c r="AI13">
+      <c r="AI13" t="n">
         <v>4836</v>
       </c>
-      <c r="AJ13">
+      <c r="AJ13" t="n">
         <v>4806</v>
       </c>
-      <c r="AK13">
+      <c r="AK13" t="n">
         <v>4744</v>
       </c>
-      <c r="AL13">
+      <c r="AL13" t="n">
         <v>4539</v>
       </c>
-      <c r="AM13">
+      <c r="AM13" t="n">
         <v>4363</v>
       </c>
-      <c r="AN13">
+      <c r="AN13" t="n">
         <v>4339</v>
       </c>
-      <c r="AO13">
+      <c r="AO13" t="n">
         <v>4359</v>
       </c>
-      <c r="AP13">
+      <c r="AP13" t="n">
         <v>4775</v>
       </c>
-      <c r="AQ13">
+      <c r="AQ13" t="n">
         <v>4819</v>
       </c>
-      <c r="AR13">
+      <c r="AR13" t="n">
         <v>4861</v>
       </c>
-      <c r="AS13">
+      <c r="AS13" t="n">
         <v>4853</v>
       </c>
-      <c r="AT13">
+      <c r="AT13" t="n">
         <v>4648</v>
       </c>
-      <c r="AU13">
+      <c r="AU13" t="n">
         <v>4578</v>
       </c>
-      <c r="AV13">
+      <c r="AV13" t="n">
         <v>4562</v>
       </c>
-      <c r="AW13">
+      <c r="AW13" t="n">
         <v>4577</v>
       </c>
-      <c r="AX13">
+      <c r="AX13" t="n">
         <v>4603</v>
       </c>
-      <c r="AY13">
+      <c r="AY13" t="n">
         <v>4676</v>
       </c>
-      <c r="AZ13">
+      <c r="AZ13" t="n">
         <v>4624</v>
       </c>
-      <c r="BA13">
+      <c r="BA13" t="n">
         <v>4494</v>
       </c>
-      <c r="BB13">
+      <c r="BB13" t="n">
         <v>4354</v>
       </c>
-      <c r="BC13">
+      <c r="BC13" t="n">
         <v>4197</v>
       </c>
-      <c r="BD13">
+      <c r="BD13" t="n">
         <v>4146</v>
       </c>
-      <c r="BE13">
+      <c r="BE13" t="n">
         <v>4183</v>
       </c>
-      <c r="BF13">
+      <c r="BF13" t="n">
         <v>4306</v>
       </c>
-      <c r="BG13">
+      <c r="BG13" t="n">
         <v>4408</v>
       </c>
-      <c r="BH13">
+      <c r="BH13" t="n">
         <v>4453</v>
       </c>
-      <c r="BI13">
+      <c r="BI13" t="n">
         <v>4461</v>
       </c>
-      <c r="BJ13">
+      <c r="BJ13" t="n">
         <v>4106</v>
       </c>
-      <c r="BK13">
+      <c r="BK13" t="n">
         <v>4083</v>
       </c>
-      <c r="BL13">
+      <c r="BL13" t="n">
         <v>4101</v>
       </c>
-      <c r="BM13">
+      <c r="BM13" t="n">
         <v>4169</v>
       </c>
-      <c r="BN13">
+      <c r="BN13" t="n">
         <v>4387</v>
       </c>
-      <c r="BO13">
+      <c r="BO13" t="n">
         <v>4486</v>
       </c>
-      <c r="BP13">
+      <c r="BP13" t="n">
         <v>4552</v>
       </c>
-      <c r="BQ13">
+      <c r="BQ13" t="n">
         <v>4541</v>
       </c>
-      <c r="BR13">
+      <c r="BR13" t="n">
         <v>4400</v>
       </c>
-      <c r="BS13">
+      <c r="BS13" t="n">
         <v>4364</v>
       </c>
-      <c r="BT13">
+      <c r="BT13" t="n">
         <v>4391</v>
       </c>
-      <c r="BU13">
+      <c r="BU13" t="n">
         <v>4494</v>
       </c>
-      <c r="BV13">
+      <c r="BV13" t="n">
         <v>4569</v>
       </c>
-      <c r="BW13">
+      <c r="BW13" t="n">
         <v>4617</v>
       </c>
-      <c r="BX13">
+      <c r="BX13" t="n">
         <v>4678</v>
       </c>
-      <c r="BY13">
+      <c r="BY13" t="n">
         <v>4839</v>
       </c>
-      <c r="BZ13">
+      <c r="BZ13" t="n">
         <v>4929</v>
       </c>
-      <c r="CA13">
+      <c r="CA13" t="n">
         <v>4923</v>
       </c>
-      <c r="CB13">
+      <c r="CB13" t="n">
         <v>4755</v>
       </c>
-      <c r="CC13">
+      <c r="CC13" t="n">
         <v>4513</v>
       </c>
-      <c r="CD13">
+      <c r="CD13" t="n">
         <v>4719</v>
       </c>
-      <c r="CE13">
+      <c r="CE13" t="n">
         <v>4468</v>
       </c>
-      <c r="CF13">
+      <c r="CF13" t="n">
         <v>4377</v>
       </c>
-      <c r="CG13">
+      <c r="CG13" t="n">
         <v>4156</v>
       </c>
-      <c r="CH13">
+      <c r="CH13" t="n">
         <v>4204</v>
       </c>
-      <c r="CI13">
+      <c r="CI13" t="n">
         <v>4224</v>
       </c>
-      <c r="CJ13">
+      <c r="CJ13" t="n">
         <v>4250</v>
       </c>
-      <c r="CK13">
+      <c r="CK13" t="n">
         <v>4263</v>
       </c>
-      <c r="CL13">
+      <c r="CL13" t="n">
         <v>4339</v>
       </c>
-      <c r="CM13">
+      <c r="CM13" t="n">
         <v>4374</v>
       </c>
-      <c r="CN13">
+      <c r="CN13" t="n">
         <v>4413</v>
       </c>
-      <c r="CO13">
+      <c r="CO13" t="n">
         <v>4446</v>
       </c>
-      <c r="CP13">
+      <c r="CP13" t="n">
         <v>4372</v>
       </c>
-      <c r="CQ13">
+      <c r="CQ13" t="n">
         <v>4370</v>
       </c>
-      <c r="CR13">
+      <c r="CR13" t="n">
         <v>4492</v>
       </c>
-      <c r="CS13">
+      <c r="CS13" t="n">
         <v>4325</v>
       </c>
-      <c r="CT13">
+      <c r="CT13" t="n">
         <v>4321</v>
       </c>
-      <c r="CU13">
+      <c r="CU13" t="n">
         <v>4285</v>
       </c>
-      <c r="CV13">
+      <c r="CV13" t="n">
         <v>4237</v>
       </c>
-      <c r="CW13">
+      <c r="CW13" t="n">
         <v>4222</v>
       </c>
-      <c r="CX13">
+      <c r="CX13" t="n">
         <v>4192</v>
       </c>
-      <c r="CY13">
+      <c r="CY13" t="n">
         <v>4188</v>
       </c>
-      <c r="CZ13">
+      <c r="CZ13" t="n">
         <v>4126</v>
       </c>
-      <c r="DA13">
+      <c r="DA13" t="n">
         <v>4123</v>
       </c>
-      <c r="DB13">
+      <c r="DB13" t="n">
         <v>4123</v>
       </c>
-      <c r="DC13">
+      <c r="DC13" t="n">
         <v>4131</v>
       </c>
-      <c r="DD13">
+      <c r="DD13" t="n">
         <v>4147</v>
       </c>
-      <c r="DE13">
+      <c r="DE13" t="n">
         <v>4129</v>
       </c>
-      <c r="DF13">
+      <c r="DF13" t="n">
         <v>4302</v>
       </c>
-      <c r="DG13">
+      <c r="DG13" t="n">
         <v>4038</v>
       </c>
-      <c r="DH13">
+      <c r="DH13" t="n">
         <v>4318</v>
       </c>
-      <c r="DI13">
+      <c r="DI13" t="n">
         <v>4327</v>
       </c>
-      <c r="DJ13">
+      <c r="DJ13" t="n">
         <v>4293</v>
       </c>
-      <c r="DK13">
+      <c r="DK13" t="n">
         <v>4258</v>
       </c>
-      <c r="DL13">
+      <c r="DL13" t="n">
         <v>4299</v>
       </c>
-      <c r="DM13">
+      <c r="DM13" t="n">
         <v>4315</v>
       </c>
-      <c r="DN13">
+      <c r="DN13" t="n">
         <v>4343</v>
       </c>
     </row>
-    <row r="14" spans="1:118">
-      <c r="A14" s="1" t="s">
-        <v>129</v>
-      </c>
-      <c r="B14">
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>Gross Domestic Product (CVM)</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
         <v>1043940</v>
       </c>
-      <c r="C14">
+      <c r="C14" t="n">
         <v>1051493</v>
       </c>
-      <c r="D14">
+      <c r="D14" t="n">
         <v>1117265</v>
       </c>
-      <c r="E14">
+      <c r="E14" t="n">
         <v>1128004</v>
       </c>
-      <c r="F14">
+      <c r="F14" t="n">
         <v>1155167</v>
       </c>
-      <c r="G14">
+      <c r="G14" t="n">
         <v>1159212</v>
       </c>
-      <c r="H14">
+      <c r="H14" t="n">
         <v>1167189</v>
       </c>
-      <c r="I14">
+      <c r="I14" t="n">
         <v>1204635</v>
       </c>
-      <c r="J14">
+      <c r="J14" t="n">
         <v>1241364</v>
       </c>
-      <c r="K14">
+      <c r="K14" t="n">
         <v>1271334</v>
       </c>
-      <c r="L14">
+      <c r="L14" t="n">
         <v>1266064</v>
       </c>
-      <c r="M14">
+      <c r="M14" t="n">
         <v>1287811</v>
       </c>
-      <c r="N14">
+      <c r="N14" t="n">
         <v>1290178</v>
       </c>
-      <c r="O14">
+      <c r="O14" t="n">
         <v>1355585</v>
       </c>
-      <c r="P14">
+      <c r="P14" t="n">
         <v>1358694</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" t="n">
         <v>1350295</v>
       </c>
-      <c r="R14">
+      <c r="R14" t="n">
         <v>1295068</v>
       </c>
-      <c r="S14">
+      <c r="S14" t="n">
         <v>1332432</v>
       </c>
-      <c r="T14">
+      <c r="T14" t="n">
         <v>1316869</v>
       </c>
-      <c r="U14">
+      <c r="U14" t="n">
         <v>1264817</v>
       </c>
-      <c r="V14">
+      <c r="V14" t="n">
         <v>1219543</v>
       </c>
-      <c r="W14">
+      <c r="W14" t="n">
         <v>1169841</v>
       </c>
-      <c r="X14">
+      <c r="X14" t="n">
         <v>1185583</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" t="n">
         <v>1234176</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" t="n">
         <v>1231096</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" t="n">
         <v>1235950</v>
       </c>
-      <c r="AB14">
+      <c r="AB14" t="n">
         <v>1278567</v>
       </c>
-      <c r="AC14">
+      <c r="AC14" t="n">
         <v>1286444</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" t="n">
         <v>1312743</v>
       </c>
-      <c r="AE14">
+      <c r="AE14" t="n">
         <v>1310305</v>
       </c>
-      <c r="AF14">
+      <c r="AF14" t="n">
         <v>1311035</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" t="n">
         <v>1322086</v>
       </c>
-      <c r="AH14">
+      <c r="AH14" t="n">
         <v>1340916</v>
       </c>
-      <c r="AI14">
+      <c r="AI14" t="n">
         <v>1357226</v>
       </c>
-      <c r="AJ14">
+      <c r="AJ14" t="n">
         <v>1361128</v>
       </c>
-      <c r="AK14">
+      <c r="AK14" t="n">
         <v>1377551</v>
       </c>
-      <c r="AL14">
+      <c r="AL14" t="n">
         <v>1401122</v>
       </c>
-      <c r="AM14">
+      <c r="AM14" t="n">
         <v>1441696</v>
       </c>
-      <c r="AN14">
+      <c r="AN14" t="n">
         <v>1457612</v>
       </c>
-      <c r="AO14">
+      <c r="AO14" t="n">
         <v>1470469</v>
       </c>
-      <c r="AP14">
+      <c r="AP14" t="n">
         <v>1507410</v>
       </c>
-      <c r="AQ14">
+      <c r="AQ14" t="n">
         <v>1531805</v>
       </c>
-      <c r="AR14">
+      <c r="AR14" t="n">
         <v>1559613</v>
       </c>
-      <c r="AS14">
+      <c r="AS14" t="n">
         <v>1585088</v>
       </c>
-      <c r="AT14">
+      <c r="AT14" t="n">
         <v>1605528</v>
       </c>
-      <c r="AU14">
+      <c r="AU14" t="n">
         <v>1630311</v>
       </c>
-      <c r="AV14">
+      <c r="AV14" t="n">
         <v>1648705</v>
       </c>
-      <c r="AW14">
+      <c r="AW14" t="n">
         <v>1687376</v>
       </c>
-      <c r="AX14">
+      <c r="AX14" t="n">
         <v>1667251</v>
       </c>
-      <c r="AY14">
+      <c r="AY14" t="n">
         <v>1703635</v>
       </c>
-      <c r="AZ14">
+      <c r="AZ14" t="n">
         <v>1727030</v>
       </c>
-      <c r="BA14">
+      <c r="BA14" t="n">
         <v>1750093</v>
       </c>
-      <c r="BB14">
+      <c r="BB14" t="n">
         <v>1759029</v>
       </c>
-      <c r="BC14">
+      <c r="BC14" t="n">
         <v>1782039</v>
       </c>
-      <c r="BD14">
+      <c r="BD14" t="n">
         <v>1803808</v>
       </c>
-      <c r="BE14">
+      <c r="BE14" t="n">
         <v>1843868</v>
       </c>
-      <c r="BF14">
+      <c r="BF14" t="n">
         <v>1872883</v>
       </c>
-      <c r="BG14">
+      <c r="BG14" t="n">
         <v>1876656</v>
       </c>
-      <c r="BH14">
+      <c r="BH14" t="n">
         <v>1902483</v>
       </c>
-      <c r="BI14">
+      <c r="BI14" t="n">
         <v>1930168</v>
       </c>
-      <c r="BJ14">
+      <c r="BJ14" t="n">
         <v>1929934</v>
       </c>
-      <c r="BK14">
+      <c r="BK14" t="n">
         <v>1943261</v>
       </c>
-      <c r="BL14">
+      <c r="BL14" t="n">
         <v>1947131</v>
       </c>
-      <c r="BM14">
+      <c r="BM14" t="n">
         <v>1896810</v>
       </c>
-      <c r="BN14">
+      <c r="BN14" t="n">
         <v>1840468</v>
       </c>
-      <c r="BO14">
+      <c r="BO14" t="n">
         <v>1882568</v>
       </c>
-      <c r="BP14">
+      <c r="BP14" t="n">
         <v>1942165</v>
       </c>
-      <c r="BQ14">
+      <c r="BQ14" t="n">
         <v>1998350</v>
       </c>
-      <c r="BR14">
+      <c r="BR14" t="n">
         <v>2056191</v>
       </c>
-      <c r="BS14">
+      <c r="BS14" t="n">
         <v>2050009</v>
       </c>
-      <c r="BT14">
+      <c r="BT14" t="n">
         <v>2061032</v>
       </c>
-      <c r="BU14">
+      <c r="BU14" t="n">
         <v>2069570</v>
       </c>
-      <c r="BV14">
+      <c r="BV14" t="n">
         <v>2116327</v>
       </c>
-      <c r="BW14">
+      <c r="BW14" t="n">
         <v>2086229</v>
       </c>
-      <c r="BX14">
+      <c r="BX14" t="n">
         <v>2118251</v>
       </c>
-      <c r="BY14">
+      <c r="BY14" t="n">
         <v>1985256</v>
       </c>
-      <c r="BZ14">
+      <c r="BZ14" t="n">
         <v>2171511</v>
       </c>
-      <c r="CA14">
+      <c r="CA14" t="n">
         <v>2212811</v>
       </c>
-      <c r="CB14">
+      <c r="CB14" t="n">
         <v>2230646</v>
       </c>
-      <c r="CC14">
+      <c r="CC14" t="n">
         <v>2288900</v>
       </c>
-      <c r="CD14">
+      <c r="CD14" t="n">
         <v>2287227</v>
       </c>
-      <c r="CE14">
+      <c r="CE14" t="n">
         <v>2273908</v>
       </c>
-      <c r="CF14">
+      <c r="CF14" t="n">
         <v>2289937</v>
       </c>
-      <c r="CG14">
+      <c r="CG14" t="n">
         <v>2288674</v>
       </c>
-      <c r="CH14">
+      <c r="CH14" t="n">
         <v>2280160</v>
       </c>
-      <c r="CI14">
+      <c r="CI14" t="n">
         <v>2294333</v>
       </c>
-      <c r="CJ14">
+      <c r="CJ14" t="n">
         <v>2315568</v>
       </c>
-      <c r="CK14">
+      <c r="CK14" t="n">
         <v>2340604</v>
       </c>
-      <c r="CL14">
+      <c r="CL14" t="n">
         <v>2351837</v>
       </c>
-      <c r="CM14">
+      <c r="CM14" t="n">
         <v>2361870</v>
       </c>
-      <c r="CN14">
+      <c r="CN14" t="n">
         <v>2396315</v>
       </c>
-      <c r="CO14">
+      <c r="CO14" t="n">
         <v>2411259</v>
       </c>
-      <c r="CP14">
+      <c r="CP14" t="n">
         <v>2430169</v>
       </c>
-      <c r="CQ14">
+      <c r="CQ14" t="n">
         <v>2453190</v>
       </c>
-      <c r="CR14">
+      <c r="CR14" t="n">
         <v>2474147</v>
       </c>
-      <c r="CS14">
+      <c r="CS14" t="n">
         <v>2490930</v>
       </c>
-      <c r="CT14">
+      <c r="CT14" t="n">
         <v>2523113</v>
       </c>
-      <c r="CU14">
+      <c r="CU14" t="n">
         <v>2560908</v>
       </c>
-      <c r="CV14">
+      <c r="CV14" t="n">
         <v>2589268</v>
       </c>
-      <c r="CW14">
+      <c r="CW14" t="n">
         <v>2587032</v>
       </c>
-      <c r="CX14">
+      <c r="CX14" t="n">
         <v>2650003</v>
       </c>
-      <c r="CY14">
+      <c r="CY14" t="n">
         <v>2682699</v>
       </c>
-      <c r="CZ14">
+      <c r="CZ14" t="n">
         <v>2679049</v>
       </c>
-      <c r="DA14">
+      <c r="DA14" t="n">
         <v>2679985</v>
       </c>
-      <c r="DB14">
+      <c r="DB14" t="n">
         <v>2720108</v>
       </c>
-      <c r="DC14">
+      <c r="DC14" t="n">
         <v>2746994</v>
       </c>
-      <c r="DD14">
+      <c r="DD14" t="n">
         <v>2753971</v>
       </c>
-      <c r="DE14">
+      <c r="DE14" t="n">
         <v>2702592</v>
       </c>
-      <c r="DF14">
+      <c r="DF14" t="n">
         <v>2659158</v>
       </c>
-      <c r="DG14">
+      <c r="DG14" t="n">
         <v>2411789</v>
       </c>
-      <c r="DH14">
+      <c r="DH14" t="n">
         <v>2582112</v>
       </c>
-      <c r="DI14">
+      <c r="DI14" t="n">
         <v>2582731</v>
       </c>
-      <c r="DJ14">
+      <c r="DJ14" t="n">
         <v>2596877</v>
       </c>
-      <c r="DK14">
+      <c r="DK14" t="n">
         <v>2600722</v>
       </c>
-      <c r="DL14">
+      <c r="DL14" t="n">
         <v>2578095</v>
       </c>
-      <c r="DM14">
+      <c r="DM14" t="n">
         <v>2624780</v>
       </c>
-      <c r="DN14">
+      <c r="DN14" t="n">
         <v>2654870</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>